--- a/data/docity.xlsx
+++ b/data/docity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/297c1cd2404e0bb9/바탕 화면/solution-challenge/shield-front/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/297c1cd2404e0bb9/바탕 화면/solution-challenge/shield-front/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{5A02C002-B127-44EE-8444-2D82B2453B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A6FF2DA-259B-4D20-9BCB-8056C2B66B17}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{5A02C002-B127-44EE-8444-2D82B2453B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBD80A43-10E6-428C-8F6F-155E5217139F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CA05437-BCEC-4CFB-AF07-8F30FDCEC6CE}"/>
   </bookViews>
@@ -36,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="576">
   <si>
     <t>docity</t>
   </si>
   <si>
+    <t>do</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
     <t>강원강릉시</t>
   </si>
   <si>
-    <t>강원</t>
-  </si>
-  <si>
     <t>강릉시</t>
   </si>
   <si>
@@ -161,9 +161,6 @@
     <t>경기가평군</t>
   </si>
   <si>
-    <t>경기</t>
-  </si>
-  <si>
     <t>가평군</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>경상거제시</t>
   </si>
   <si>
-    <t>경상</t>
-  </si>
-  <si>
     <t>거제시</t>
   </si>
   <si>
@@ -833,9 +827,6 @@
     <t>서울강남구</t>
   </si>
   <si>
-    <t>서울</t>
-  </si>
-  <si>
     <t>강남구</t>
   </si>
   <si>
@@ -995,9 +986,6 @@
     <t>인천시강화군</t>
   </si>
   <si>
-    <t>인천시</t>
-  </si>
-  <si>
     <t>인천시계양구</t>
   </si>
   <si>
@@ -1043,9 +1031,6 @@
     <t>전라강진군</t>
   </si>
   <si>
-    <t>전라</t>
-  </si>
-  <si>
     <t>강진군</t>
   </si>
   <si>
@@ -1265,9 +1250,6 @@
     <t>제주서귀포시</t>
   </si>
   <si>
-    <t>제주</t>
-  </si>
-  <si>
     <t>서귀포시</t>
   </si>
   <si>
@@ -1280,9 +1262,6 @@
     <t>충청갈매로</t>
   </si>
   <si>
-    <t>충청</t>
-  </si>
-  <si>
     <t>갈매로</t>
   </si>
   <si>
@@ -1430,19 +1409,10 @@
     <t>대평로</t>
   </si>
   <si>
-    <t>충청도담동</t>
-  </si>
-  <si>
     <t>도담동</t>
   </si>
   <si>
-    <t>충청도움1로</t>
-  </si>
-  <si>
     <t>도움1로</t>
-  </si>
-  <si>
-    <t>충청도움3로</t>
   </si>
   <si>
     <t>도움3로</t>
@@ -1749,18 +1719,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Busan</t>
+  </si>
+  <si>
+    <t>Daegu</t>
+  </si>
+  <si>
+    <t>Gwangju</t>
+  </si>
+  <si>
+    <t>Daejeon</t>
+  </si>
+  <si>
+    <t>Ulsan</t>
+  </si>
+  <si>
+    <t>Incheon</t>
+  </si>
+  <si>
+    <t>Gyeonggi-do</t>
+  </si>
+  <si>
+    <t>Gangwon-do</t>
+  </si>
+  <si>
+    <t>Gyeongsang-do</t>
+  </si>
+  <si>
+    <t>Jeonla-do</t>
+  </si>
+  <si>
+    <t>Jeju</t>
+  </si>
+  <si>
+    <t>Chungcheong-do</t>
+  </si>
+  <si>
+    <t>Chungcheong-do담동</t>
+  </si>
+  <si>
+    <t>Chungcheong-do움1로</t>
+  </si>
+  <si>
+    <t>Chungcheong-do움3로</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="@&quot;도&quot;"/>
-    <numFmt numFmtId="178" formatCode="@&quot;시&quot;"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1877,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1902,19 +1912,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2253,38 +2251,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBB9619-BF94-44CA-8B8F-35BA8AF17E8E}">
   <dimension ref="A1:E297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="2" max="2" width="8.796875" style="9"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>570</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -2301,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -2318,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -2335,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -2352,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -2369,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -2386,7 +2381,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -2403,7 +2398,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -2420,7 +2415,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
@@ -2437,7 +2432,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>23</v>
@@ -2454,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>25</v>
@@ -2471,7 +2466,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
@@ -2488,7 +2483,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>29</v>
@@ -2505,7 +2500,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>31</v>
@@ -2522,7 +2517,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>33</v>
@@ -2539,7 +2534,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>35</v>
@@ -2556,7 +2551,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>37</v>
@@ -2573,7 +2568,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>4</v>
+        <v>568</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>39</v>
@@ -2590,10 +2585,10 @@
         <v>40</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D20" s="5">
         <v>127.5117778</v>
@@ -2604,13 +2599,13 @@
     </row>
     <row r="21" spans="1:5" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D21" s="5">
         <v>126.49</v>
@@ -2621,13 +2616,13 @@
     </row>
     <row r="22" spans="1:5" ht="18" thickBot="1">
       <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="5">
         <v>126.7770556</v>
@@ -2638,13 +2633,13 @@
     </row>
     <row r="23" spans="1:5" ht="18" thickBot="1">
       <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D23" s="5">
         <v>126.9898</v>
@@ -2655,13 +2650,13 @@
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1">
       <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D24" s="5">
         <v>126.8667083</v>
@@ -2672,13 +2667,13 @@
     </row>
     <row r="25" spans="1:5" ht="18" thickBot="1">
       <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D25" s="5">
         <v>127.2577861</v>
@@ -2689,13 +2684,13 @@
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1">
       <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D26" s="5">
         <v>127.1318639</v>
@@ -2706,13 +2701,13 @@
     </row>
     <row r="27" spans="1:5" ht="18" thickBot="1">
       <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D27" s="5">
         <v>126.9375</v>
@@ -2723,13 +2718,13 @@
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1">
       <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D28" s="5">
         <v>126.71777779999999</v>
@@ -2740,13 +2735,13 @@
     </row>
     <row r="29" spans="1:5" ht="21" thickBot="1">
       <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D29" s="5">
         <v>127.21863329999999</v>
@@ -2757,13 +2752,13 @@
     </row>
     <row r="30" spans="1:5" ht="21" thickBot="1">
       <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D30" s="5">
         <v>127.0626528</v>
@@ -2774,13 +2769,13 @@
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1">
       <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D31" s="5">
         <v>126.76600000000001</v>
@@ -2791,13 +2786,13 @@
     </row>
     <row r="32" spans="1:5" ht="18" thickBot="1">
       <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D32" s="5">
         <v>127.1477194</v>
@@ -2808,13 +2803,13 @@
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1">
       <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D33" s="5">
         <v>127.0122222</v>
@@ -2825,13 +2820,13 @@
     </row>
     <row r="34" spans="1:5" ht="18" thickBot="1">
       <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D34" s="5">
         <v>126.80507780000001</v>
@@ -2842,13 +2837,13 @@
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1">
       <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D35" s="5">
         <v>126.8468194</v>
@@ -2859,13 +2854,13 @@
     </row>
     <row r="36" spans="1:5" ht="18" thickBot="1">
       <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D36" s="5">
         <v>127.2818444</v>
@@ -2876,13 +2871,13 @@
     </row>
     <row r="37" spans="1:5" ht="18" thickBot="1">
       <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D37" s="5">
         <v>126.95335559999999</v>
@@ -2893,13 +2888,13 @@
     </row>
     <row r="38" spans="1:5" ht="18" thickBot="1">
       <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D38" s="5">
         <v>127.04781939999999</v>
@@ -2910,13 +2905,13 @@
     </row>
     <row r="39" spans="1:5" ht="18" thickBot="1">
       <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D39" s="5">
         <v>127.48988610000001</v>
@@ -2927,13 +2922,13 @@
     </row>
     <row r="40" spans="1:5" ht="18" thickBot="1">
       <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D40" s="5">
         <v>127.652958</v>
@@ -2944,13 +2939,13 @@
     </row>
     <row r="41" spans="1:5" ht="18" thickBot="1">
       <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D41" s="5">
         <v>127.63962220000001</v>
@@ -2961,13 +2956,13 @@
     </row>
     <row r="42" spans="1:5" ht="18" thickBot="1">
       <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D42" s="5">
         <v>127.0770667</v>
@@ -2978,13 +2973,13 @@
     </row>
     <row r="43" spans="1:5" ht="18" thickBot="1">
       <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D43" s="5">
         <v>127.0796417</v>
@@ -2995,13 +2990,13 @@
     </row>
     <row r="44" spans="1:5" ht="18" thickBot="1">
       <c r="A44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D44" s="5">
         <v>126.6388889</v>
@@ -3012,13 +3007,13 @@
     </row>
     <row r="45" spans="1:5" ht="18" thickBot="1">
       <c r="A45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D45" s="5">
         <v>127.20384439999999</v>
@@ -3029,13 +3024,13 @@
     </row>
     <row r="46" spans="1:5" ht="18" thickBot="1">
       <c r="A46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D46" s="5">
         <v>126.9703889</v>
@@ -3046,13 +3041,13 @@
     </row>
     <row r="47" spans="1:5" ht="21" thickBot="1">
       <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D47" s="5">
         <v>127.03584170000001</v>
@@ -3063,13 +3058,13 @@
     </row>
     <row r="48" spans="1:5" ht="18" thickBot="1">
       <c r="A48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D48" s="5">
         <v>127.4432194</v>
@@ -3080,13 +3075,13 @@
     </row>
     <row r="49" spans="1:5" ht="18" thickBot="1">
       <c r="A49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D49" s="5">
         <v>126.7819528</v>
@@ -3097,13 +3092,13 @@
     </row>
     <row r="50" spans="1:5" ht="18" thickBot="1">
       <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D50" s="5">
         <v>127.11465560000001</v>
@@ -3114,13 +3109,13 @@
     </row>
     <row r="51" spans="1:5" ht="18" thickBot="1">
       <c r="A51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D51" s="5">
         <v>127.2024194</v>
@@ -3131,13 +3126,13 @@
     </row>
     <row r="52" spans="1:5" ht="18" thickBot="1">
       <c r="A52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D52" s="5">
         <v>127.217</v>
@@ -3148,13 +3143,13 @@
     </row>
     <row r="53" spans="1:5" ht="18" thickBot="1">
       <c r="A53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D53" s="5">
         <v>126.8335306</v>
@@ -3165,13 +3160,13 @@
     </row>
     <row r="54" spans="1:5" ht="21" thickBot="1">
       <c r="A54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D54" s="5">
         <v>126.7059186</v>
@@ -3182,13 +3177,13 @@
     </row>
     <row r="55" spans="1:5" ht="18" thickBot="1">
       <c r="A55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D55" s="5">
         <v>128.6233556</v>
@@ -3199,13 +3194,13 @@
     </row>
     <row r="56" spans="1:5" ht="18" thickBot="1">
       <c r="A56" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D56" s="5">
         <v>127.9116556</v>
@@ -3216,13 +3211,13 @@
     </row>
     <row r="57" spans="1:5" ht="18" thickBot="1">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" s="5">
         <v>128.74346389999999</v>
@@ -3233,13 +3228,13 @@
     </row>
     <row r="58" spans="1:5" ht="18" thickBot="1">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D58" s="5">
         <v>129.22702219999999</v>
@@ -3250,13 +3245,13 @@
     </row>
     <row r="59" spans="1:5" ht="18" thickBot="1">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D59" s="5">
         <v>128.2650222</v>
@@ -3267,10 +3262,10 @@
     </row>
     <row r="60" spans="1:5" ht="18" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>7</v>
@@ -3284,13 +3279,13 @@
     </row>
     <row r="61" spans="1:5" ht="18" thickBot="1">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="5">
         <v>128.34677780000001</v>
@@ -3301,13 +3296,13 @@
     </row>
     <row r="62" spans="1:5" ht="18" thickBot="1">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D62" s="5">
         <v>128.5750778</v>
@@ -3318,13 +3313,13 @@
     </row>
     <row r="63" spans="1:5" ht="18" thickBot="1">
       <c r="A63" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="5">
         <v>129.22447500000001</v>
@@ -3335,13 +3330,13 @@
     </row>
     <row r="64" spans="1:5" ht="18" thickBot="1">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" s="5">
         <v>128.11580000000001</v>
@@ -3352,13 +3347,13 @@
     </row>
     <row r="65" spans="1:5" ht="18" thickBot="1">
       <c r="A65" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65" s="5">
         <v>128.8916667</v>
@@ -3369,13 +3364,13 @@
     </row>
     <row r="66" spans="1:5" ht="18" thickBot="1">
       <c r="A66" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D66" s="5">
         <v>127.8944667</v>
@@ -3386,13 +3381,13 @@
     </row>
     <row r="67" spans="1:5" ht="18" thickBot="1">
       <c r="A67" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D67" s="5">
         <v>128.43327500000001</v>
@@ -3403,13 +3398,13 @@
     </row>
     <row r="68" spans="1:5" ht="18" thickBot="1">
       <c r="A68" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D68" s="5">
         <v>128.56786299999999</v>
@@ -3420,13 +3415,13 @@
     </row>
     <row r="69" spans="1:5" ht="18" thickBot="1">
       <c r="A69" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D69" s="5">
         <v>128.18901940000001</v>
@@ -3437,13 +3432,13 @@
     </row>
     <row r="70" spans="1:5" ht="18" thickBot="1">
       <c r="A70" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D70" s="5">
         <v>128.7489444</v>
@@ -3454,13 +3449,13 @@
     </row>
     <row r="71" spans="1:5" ht="18" thickBot="1">
       <c r="A71" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D71" s="5">
         <v>128.73487499999999</v>
@@ -3471,13 +3466,13 @@
     </row>
     <row r="72" spans="1:5" ht="18" thickBot="1">
       <c r="A72" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D72" s="5">
         <v>128.06677780000001</v>
@@ -3488,13 +3483,13 @@
     </row>
     <row r="73" spans="1:5" ht="18" thickBot="1">
       <c r="A73" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D73" s="5">
         <v>127.87561940000001</v>
@@ -3505,13 +3500,13 @@
     </row>
     <row r="74" spans="1:5" ht="18" thickBot="1">
       <c r="A74" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" s="5">
         <v>128.16126389999999</v>
@@ -3522,13 +3517,13 @@
     </row>
     <row r="75" spans="1:5" ht="18" thickBot="1">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D75" s="5">
         <v>128.28515279999999</v>
@@ -3539,13 +3534,13 @@
     </row>
     <row r="76" spans="1:5" ht="18" thickBot="1">
       <c r="A76" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D76" s="5">
         <v>128.7316222</v>
@@ -3556,13 +3551,13 @@
     </row>
     <row r="77" spans="1:5" ht="18" thickBot="1">
       <c r="A77" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D77" s="5">
         <v>129.0394111</v>
@@ -3573,13 +3568,13 @@
     </row>
     <row r="78" spans="1:5" ht="18" thickBot="1">
       <c r="A78" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D78" s="5">
         <v>129.3683556</v>
@@ -3590,13 +3585,13 @@
     </row>
     <row r="79" spans="1:5" ht="18" thickBot="1">
       <c r="A79" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D79" s="5">
         <v>129.11462220000001</v>
@@ -3607,13 +3602,13 @@
     </row>
     <row r="80" spans="1:5" ht="18" thickBot="1">
       <c r="A80" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D80" s="5">
         <v>128.62634439999999</v>
@@ -3624,13 +3619,13 @@
     </row>
     <row r="81" spans="1:5" ht="18" thickBot="1">
       <c r="A81" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" s="5">
         <v>128.940775</v>
@@ -3641,13 +3636,13 @@
     </row>
     <row r="82" spans="1:5" ht="18" thickBot="1">
       <c r="A82" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D82" s="5">
         <v>128.4550222</v>
@@ -3658,13 +3653,13 @@
     </row>
     <row r="83" spans="1:5" ht="18" thickBot="1">
       <c r="A83" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D83" s="5">
         <v>130.9037889</v>
@@ -3675,13 +3670,13 @@
     </row>
     <row r="84" spans="1:5" ht="18" thickBot="1">
       <c r="A84" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D84" s="5">
         <v>129.29716389999999</v>
@@ -3692,13 +3687,13 @@
     </row>
     <row r="85" spans="1:5" ht="18" thickBot="1">
       <c r="A85" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D85" s="5">
         <v>129.40278609999999</v>
@@ -3709,13 +3704,13 @@
     </row>
     <row r="86" spans="1:5" ht="18" thickBot="1">
       <c r="A86" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D86" s="5">
         <v>128.26382219999999</v>
@@ -3726,13 +3721,13 @@
     </row>
     <row r="87" spans="1:5" ht="18" thickBot="1">
       <c r="A87" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D87" s="5">
         <v>128.69936390000001</v>
@@ -3743,13 +3738,13 @@
     </row>
     <row r="88" spans="1:5" ht="18" thickBot="1">
       <c r="A88" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D88" s="5">
         <v>128.11000000000001</v>
@@ -3760,13 +3755,13 @@
     </row>
     <row r="89" spans="1:5" ht="18" thickBot="1">
       <c r="A89" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D89" s="5">
         <v>128.710081</v>
@@ -3777,13 +3772,13 @@
     </row>
     <row r="90" spans="1:5" ht="18" thickBot="1">
       <c r="A90" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D90" s="5">
         <v>128.4945333</v>
@@ -3794,13 +3789,13 @@
     </row>
     <row r="91" spans="1:5" ht="18" thickBot="1">
       <c r="A91" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D91" s="5">
         <v>128.6401544</v>
@@ -3811,13 +3806,13 @@
     </row>
     <row r="92" spans="1:5" ht="18" thickBot="1">
       <c r="A92" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D92" s="5">
         <v>128.7362</v>
@@ -3828,13 +3823,13 @@
     </row>
     <row r="93" spans="1:5" ht="18" thickBot="1">
       <c r="A93" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D93" s="5">
         <v>129.05940000000001</v>
@@ -3845,13 +3840,13 @@
     </row>
     <row r="94" spans="1:5" ht="18" thickBot="1">
       <c r="A94" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D94" s="5">
         <v>128.40379720000001</v>
@@ -3862,13 +3857,13 @@
     </row>
     <row r="95" spans="1:5" ht="18" thickBot="1">
       <c r="A95" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D95" s="5">
         <v>128.43527779999999</v>
@@ -3879,13 +3874,13 @@
     </row>
     <row r="96" spans="1:5" ht="18" thickBot="1">
       <c r="A96" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D96" s="5">
         <v>129.3616667</v>
@@ -3896,13 +3891,13 @@
     </row>
     <row r="97" spans="1:5" ht="18" thickBot="1">
       <c r="A97" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D97" s="5">
         <v>127.7534306</v>
@@ -3913,13 +3908,13 @@
     </row>
     <row r="98" spans="1:5" ht="18" thickBot="1">
       <c r="A98" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D98" s="5">
         <v>128.4087083</v>
@@ -3930,13 +3925,13 @@
     </row>
     <row r="99" spans="1:5" ht="18" thickBot="1">
       <c r="A99" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D99" s="5">
         <v>127.7274194</v>
@@ -3947,13 +3942,13 @@
     </row>
     <row r="100" spans="1:5" ht="18" thickBot="1">
       <c r="A100" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D100" s="5">
         <v>128.16793060000001</v>
@@ -3964,13 +3959,13 @@
     </row>
     <row r="101" spans="1:5" ht="18" thickBot="1">
       <c r="A101" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D101" s="5">
         <v>129.07499999999999</v>
@@ -3981,13 +3976,13 @@
     </row>
     <row r="102" spans="1:5" ht="18" thickBot="1">
       <c r="A102" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D102" s="5">
         <v>128.60169999999999</v>
@@ -3998,13 +3993,13 @@
     </row>
     <row r="103" spans="1:5" ht="18" thickBot="1">
       <c r="A103" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D103" s="5">
         <v>129.31229999999999</v>
@@ -4015,13 +4010,13 @@
     </row>
     <row r="104" spans="1:5" ht="21" thickBot="1">
       <c r="A104" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>52</v>
+        <v>207</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D104" s="5">
         <v>126.793668</v>
@@ -4032,13 +4027,13 @@
     </row>
     <row r="105" spans="1:5" ht="18" thickBot="1">
       <c r="A105" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>52</v>
+        <v>209</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D105" s="5">
         <v>126.9025572</v>
@@ -4049,13 +4044,13 @@
     </row>
     <row r="106" spans="1:5" ht="18" thickBot="1">
       <c r="A106" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>52</v>
+        <v>211</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D106" s="5">
         <v>126.9230903</v>
@@ -4066,13 +4061,13 @@
     </row>
     <row r="107" spans="1:5" ht="18" thickBot="1">
       <c r="A107" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>52</v>
+        <v>213</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D107" s="5">
         <v>126.9010806</v>
@@ -4083,13 +4078,13 @@
     </row>
     <row r="108" spans="1:5" ht="18" thickBot="1">
       <c r="A108" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>52</v>
+        <v>215</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D108" s="5">
         <v>126.88950629999999</v>
@@ -4100,13 +4095,13 @@
     </row>
     <row r="109" spans="1:5" ht="21" thickBot="1">
       <c r="A109" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>206</v>
+        <v>217</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D109" s="5">
         <v>128.53506390000001</v>
@@ -4117,13 +4112,13 @@
     </row>
     <row r="110" spans="1:5" ht="21" thickBot="1">
       <c r="A110" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>206</v>
+        <v>219</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D110" s="5">
         <v>128.63286669999999</v>
@@ -4134,13 +4129,13 @@
     </row>
     <row r="111" spans="1:5" ht="18" thickBot="1">
       <c r="A111" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>206</v>
+        <v>221</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D111" s="5">
         <v>128.597702</v>
@@ -4151,13 +4146,13 @@
     </row>
     <row r="112" spans="1:5" ht="21" thickBot="1">
       <c r="A112" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>206</v>
+        <v>217</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D112" s="5">
         <v>128.5325905</v>
@@ -4168,13 +4163,13 @@
     </row>
     <row r="113" spans="1:5" ht="21" thickBot="1">
       <c r="A113" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>206</v>
+        <v>222</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D113" s="5">
         <v>128.4313995</v>
@@ -4185,13 +4180,13 @@
     </row>
     <row r="114" spans="1:5" ht="18" thickBot="1">
       <c r="A114" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>206</v>
+        <v>223</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D114" s="5">
         <v>128.63555840000001</v>
@@ -4202,13 +4197,13 @@
     </row>
     <row r="115" spans="1:5" ht="18" thickBot="1">
       <c r="A115" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>206</v>
+        <v>224</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D115" s="5">
         <v>128.58289239999999</v>
@@ -4219,13 +4214,13 @@
     </row>
     <row r="116" spans="1:5" ht="18" thickBot="1">
       <c r="A116" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>206</v>
+        <v>225</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D116" s="5">
         <v>128.55916010000001</v>
@@ -4236,13 +4231,13 @@
     </row>
     <row r="117" spans="1:5" ht="21" thickBot="1">
       <c r="A117" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>206</v>
+        <v>219</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D117" s="5">
         <v>128.63070110000001</v>
@@ -4253,13 +4248,13 @@
     </row>
     <row r="118" spans="1:5" ht="18" thickBot="1">
       <c r="A118" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>206</v>
+        <v>226</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D118" s="5">
         <v>128.60617450000001</v>
@@ -4270,13 +4265,13 @@
     </row>
     <row r="119" spans="1:5" ht="21" thickBot="1">
       <c r="A119" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D119" s="5">
         <v>127.4170933</v>
@@ -4287,13 +4282,13 @@
     </row>
     <row r="120" spans="1:5" ht="18" thickBot="1">
       <c r="A120" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B120" s="11" t="s">
         <v>231</v>
       </c>
+      <c r="B120" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="C120" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D120" s="5">
         <v>127.45485960000001</v>
@@ -4304,13 +4299,13 @@
     </row>
     <row r="121" spans="1:5" ht="18" thickBot="1">
       <c r="A121" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D121" s="5">
         <v>127.38341579999999</v>
@@ -4321,13 +4316,13 @@
     </row>
     <row r="122" spans="1:5" ht="21" thickBot="1">
       <c r="A122" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D122" s="5">
         <v>127.3561363</v>
@@ -4338,13 +4333,13 @@
     </row>
     <row r="123" spans="1:5" ht="18" thickBot="1">
       <c r="A123" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D123" s="5">
         <v>127.421381</v>
@@ -4355,13 +4350,13 @@
     </row>
     <row r="124" spans="1:5" ht="21" thickBot="1">
       <c r="A124" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>204</v>
+        <v>236</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D124" s="5">
         <v>128.98290829999999</v>
@@ -4372,13 +4367,13 @@
     </row>
     <row r="125" spans="1:5" ht="21" thickBot="1">
       <c r="A125" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>204</v>
+        <v>238</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D125" s="5">
         <v>129.09431939999999</v>
@@ -4389,13 +4384,13 @@
     </row>
     <row r="126" spans="1:5" ht="18" thickBot="1">
       <c r="A126" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>204</v>
+        <v>240</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D126" s="5">
         <v>129.0865</v>
@@ -4406,13 +4401,13 @@
     </row>
     <row r="127" spans="1:5" ht="18" thickBot="1">
       <c r="A127" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>204</v>
+        <v>241</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D127" s="5">
         <v>129.05917500000001</v>
@@ -4423,13 +4418,13 @@
     </row>
     <row r="128" spans="1:5" ht="21" thickBot="1">
       <c r="A128" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>204</v>
+        <v>242</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D128" s="5">
         <v>129.0858556</v>
@@ -4440,13 +4435,13 @@
     </row>
     <row r="129" spans="1:5" ht="21" thickBot="1">
       <c r="A129" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>204</v>
+        <v>244</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D129" s="5">
         <v>129.0553194</v>
@@ -4457,13 +4452,13 @@
     </row>
     <row r="130" spans="1:5" ht="18" thickBot="1">
       <c r="A130" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>204</v>
+        <v>246</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D130" s="5">
         <v>128.99247500000001</v>
@@ -4474,13 +4469,13 @@
     </row>
     <row r="131" spans="1:5" ht="21" thickBot="1">
       <c r="A131" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>204</v>
+        <v>247</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D131" s="5">
         <v>128.99333329999999</v>
@@ -4491,13 +4486,13 @@
     </row>
     <row r="132" spans="1:5" ht="21" thickBot="1">
       <c r="A132" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>204</v>
+        <v>249</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D132" s="5">
         <v>128.9770417</v>
@@ -4508,13 +4503,13 @@
     </row>
     <row r="133" spans="1:5" ht="18" thickBot="1">
       <c r="A133" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>204</v>
+        <v>251</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D133" s="5">
         <v>129.02637780000001</v>
@@ -4525,13 +4520,13 @@
     </row>
     <row r="134" spans="1:5" ht="21" thickBot="1">
       <c r="A134" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>204</v>
+        <v>252</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D134" s="5">
         <v>129.115375</v>
@@ -4542,13 +4537,13 @@
     </row>
     <row r="135" spans="1:5" ht="21" thickBot="1">
       <c r="A135" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>204</v>
+        <v>254</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D135" s="5">
         <v>129.082075</v>
@@ -4559,13 +4554,13 @@
     </row>
     <row r="136" spans="1:5" ht="21" thickBot="1">
       <c r="A136" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>204</v>
+        <v>256</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D136" s="5">
         <v>129.0701861</v>
@@ -4576,13 +4571,13 @@
     </row>
     <row r="137" spans="1:5" ht="18" thickBot="1">
       <c r="A137" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>204</v>
+        <v>258</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D137" s="5">
         <v>129.0345083</v>
@@ -4593,13 +4588,13 @@
     </row>
     <row r="138" spans="1:5" ht="21" thickBot="1">
       <c r="A138" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>204</v>
+        <v>259</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D138" s="5">
         <v>129.16580830000001</v>
@@ -4610,13 +4605,13 @@
     </row>
     <row r="139" spans="1:5" ht="21" thickBot="1">
       <c r="A139" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>204</v>
+        <v>261</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D139" s="5">
         <v>129.2222873</v>
@@ -4627,13 +4622,13 @@
     </row>
     <row r="140" spans="1:5" ht="18" thickBot="1">
       <c r="A140" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D140" s="5">
         <v>127.04955560000001</v>
@@ -4644,13 +4639,13 @@
     </row>
     <row r="141" spans="1:5" ht="18" thickBot="1">
       <c r="A141" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B141" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="D141" s="5">
         <v>127.1258639</v>
@@ -4661,13 +4656,13 @@
     </row>
     <row r="142" spans="1:5" ht="18" thickBot="1">
       <c r="A142" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D142" s="5">
         <v>127.0277194</v>
@@ -4678,13 +4673,13 @@
     </row>
     <row r="143" spans="1:5" ht="18" thickBot="1">
       <c r="A143" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D143" s="5">
         <v>126.851675</v>
@@ -4695,13 +4690,13 @@
     </row>
     <row r="144" spans="1:5" ht="18" thickBot="1">
       <c r="A144" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D144" s="5">
         <v>126.95384439999999</v>
@@ -4712,13 +4707,13 @@
     </row>
     <row r="145" spans="1:5" ht="18" thickBot="1">
       <c r="A145" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>265</v>
+        <v>271</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D145" s="5">
         <v>127.0845333</v>
@@ -4729,13 +4724,13 @@
     </row>
     <row r="146" spans="1:5" ht="18" thickBot="1">
       <c r="A146" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>265</v>
+        <v>273</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D146" s="5">
         <v>126.8895972</v>
@@ -4746,13 +4741,13 @@
     </row>
     <row r="147" spans="1:5" ht="18" thickBot="1">
       <c r="A147" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>265</v>
+        <v>275</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D147" s="5">
         <v>126.9041972</v>
@@ -4763,13 +4758,13 @@
     </row>
     <row r="148" spans="1:5" ht="18" thickBot="1">
       <c r="A148" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>265</v>
+        <v>277</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D148" s="5">
         <v>127.0583889</v>
@@ -4780,13 +4775,13 @@
     </row>
     <row r="149" spans="1:5" ht="18" thickBot="1">
       <c r="A149" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>265</v>
+        <v>279</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D149" s="5">
         <v>127.0495222</v>
@@ -4797,13 +4792,13 @@
     </row>
     <row r="150" spans="1:5" ht="21" thickBot="1">
       <c r="A150" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>265</v>
+        <v>281</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D150" s="5">
         <v>127.0421417</v>
@@ -4814,13 +4809,13 @@
     </row>
     <row r="151" spans="1:5" ht="18" thickBot="1">
       <c r="A151" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>265</v>
+        <v>283</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D151" s="5">
         <v>126.941575</v>
@@ -4831,13 +4826,13 @@
     </row>
     <row r="152" spans="1:5" ht="18" thickBot="1">
       <c r="A152" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>265</v>
+        <v>285</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D152" s="5">
         <v>126.9105306</v>
@@ -4848,13 +4843,13 @@
     </row>
     <row r="153" spans="1:5" ht="21" thickBot="1">
       <c r="A153" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>265</v>
+        <v>287</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D153" s="5">
         <v>126.9388972</v>
@@ -4865,13 +4860,13 @@
     </row>
     <row r="154" spans="1:5" ht="18" thickBot="1">
       <c r="A154" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>265</v>
+        <v>289</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D154" s="5">
         <v>127.0348111</v>
@@ -4882,13 +4877,13 @@
     </row>
     <row r="155" spans="1:5" ht="18" thickBot="1">
       <c r="A155" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>265</v>
+        <v>291</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D155" s="5">
         <v>127.039</v>
@@ -4899,13 +4894,13 @@
     </row>
     <row r="156" spans="1:5" ht="18" thickBot="1">
       <c r="A156" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>265</v>
+        <v>293</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D156" s="5">
         <v>127.0203333</v>
@@ -4916,13 +4911,13 @@
     </row>
     <row r="157" spans="1:5" ht="18" thickBot="1">
       <c r="A157" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>265</v>
+        <v>295</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D157" s="5">
         <v>127.1079306</v>
@@ -4933,13 +4928,13 @@
     </row>
     <row r="158" spans="1:5" ht="18" thickBot="1">
       <c r="A158" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>265</v>
+        <v>297</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D158" s="5">
         <v>126.86870829999999</v>
@@ -4950,13 +4945,13 @@
     </row>
     <row r="159" spans="1:5" ht="21" thickBot="1">
       <c r="A159" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>265</v>
+        <v>299</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D159" s="5">
         <v>126.8983417</v>
@@ -4967,13 +4962,13 @@
     </row>
     <row r="160" spans="1:5" ht="18" thickBot="1">
       <c r="A160" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>265</v>
+        <v>301</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D160" s="5">
         <v>126.9675222</v>
@@ -4984,13 +4979,13 @@
     </row>
     <row r="161" spans="1:5" ht="18" thickBot="1">
       <c r="A161" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>265</v>
+        <v>303</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D161" s="5">
         <v>126.9312417</v>
@@ -5001,13 +4996,13 @@
     </row>
     <row r="162" spans="1:5" ht="18" thickBot="1">
       <c r="A162" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>265</v>
+        <v>305</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D162" s="5">
         <v>126.9816417</v>
@@ -5018,13 +5013,13 @@
     </row>
     <row r="163" spans="1:5" ht="18" thickBot="1">
       <c r="A163" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>265</v>
+        <v>307</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D163" s="5">
         <v>126.9996417</v>
@@ -5035,13 +5030,13 @@
     </row>
     <row r="164" spans="1:5" ht="18" thickBot="1">
       <c r="A164" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>265</v>
+        <v>308</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D164" s="5">
         <v>127.0947778</v>
@@ -5052,13 +5047,13 @@
     </row>
     <row r="165" spans="1:5" ht="18" thickBot="1">
       <c r="A165" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>208</v>
+        <v>310</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D165" s="5">
         <v>129.3301754</v>
@@ -5069,13 +5064,13 @@
     </row>
     <row r="166" spans="1:5" ht="18" thickBot="1">
       <c r="A166" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>208</v>
+        <v>311</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D166" s="5">
         <v>129.41669189999999</v>
@@ -5086,13 +5081,13 @@
     </row>
     <row r="167" spans="1:5" ht="18" thickBot="1">
       <c r="A167" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>208</v>
+        <v>312</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D167" s="5">
         <v>129.361245</v>
@@ -5103,13 +5098,13 @@
     </row>
     <row r="168" spans="1:5" ht="21" thickBot="1">
       <c r="A168" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>208</v>
+        <v>313</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D168" s="5">
         <v>129.2424748</v>
@@ -5120,13 +5115,13 @@
     </row>
     <row r="169" spans="1:5" ht="18" thickBot="1">
       <c r="A169" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>208</v>
+        <v>314</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D169" s="5">
         <v>129.3328162</v>
@@ -5137,13 +5132,13 @@
     </row>
     <row r="170" spans="1:5" ht="21" thickBot="1">
       <c r="A170" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D170" s="5">
         <v>126.4878417</v>
@@ -5154,13 +5149,13 @@
     </row>
     <row r="171" spans="1:5" ht="21" thickBot="1">
       <c r="A171" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D171" s="5">
         <v>126.73774400000001</v>
@@ -5171,13 +5166,13 @@
     </row>
     <row r="172" spans="1:5" ht="18" thickBot="1">
       <c r="A172" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D172" s="5">
         <v>126.6502972</v>
@@ -5188,13 +5183,13 @@
     </row>
     <row r="173" spans="1:5" ht="21" thickBot="1">
       <c r="A173" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B173" s="11" t="s">
         <v>319</v>
       </c>
+      <c r="B173" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="C173" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D173" s="5">
         <v>126.7309669</v>
@@ -5205,13 +5200,13 @@
     </row>
     <row r="174" spans="1:5" ht="18" thickBot="1">
       <c r="A174" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D174" s="5">
         <v>126.6432441</v>
@@ -5222,13 +5217,13 @@
     </row>
     <row r="175" spans="1:5" ht="21" thickBot="1">
       <c r="A175" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>319</v>
+        <v>322</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D175" s="5">
         <v>126.6502972</v>
@@ -5239,13 +5234,13 @@
     </row>
     <row r="176" spans="1:5" ht="21" thickBot="1">
       <c r="A176" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D176" s="5">
         <v>126.7219068</v>
@@ -5256,13 +5251,13 @@
     </row>
     <row r="177" spans="1:5" ht="18" thickBot="1">
       <c r="A177" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>319</v>
+        <v>326</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D177" s="5">
         <v>126.67596159999999</v>
@@ -5273,13 +5268,13 @@
     </row>
     <row r="178" spans="1:5" ht="21" thickBot="1">
       <c r="A178" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D178" s="5">
         <v>126.67826580000001</v>
@@ -5290,13 +5285,13 @@
     </row>
     <row r="179" spans="1:5" ht="18" thickBot="1">
       <c r="A179" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>319</v>
+        <v>329</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>566</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D179" s="5">
         <v>126.62176169999999</v>
@@ -5307,13 +5302,13 @@
     </row>
     <row r="180" spans="1:5" ht="18" thickBot="1">
       <c r="A180" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D180" s="5">
         <v>126.76919719999999</v>
@@ -5324,13 +5319,13 @@
     </row>
     <row r="181" spans="1:5" ht="18" thickBot="1">
       <c r="A181" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D181" s="5">
         <v>126.7041083</v>
@@ -5341,13 +5336,13 @@
     </row>
     <row r="182" spans="1:5" ht="18" thickBot="1">
       <c r="A182" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B182" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="D182" s="5">
         <v>127.2870556</v>
@@ -5358,13 +5353,13 @@
     </row>
     <row r="183" spans="1:5" ht="18" thickBot="1">
       <c r="A183" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D183" s="5">
         <v>127.2941083</v>
@@ -5375,13 +5370,13 @@
     </row>
     <row r="184" spans="1:5" ht="18" thickBot="1">
       <c r="A184" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D184" s="5">
         <v>127.6981778</v>
@@ -5392,13 +5387,13 @@
     </row>
     <row r="185" spans="1:5" ht="18" thickBot="1">
       <c r="A185" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>335</v>
+        <v>340</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D185" s="5">
         <v>127.4649333</v>
@@ -5409,13 +5404,13 @@
     </row>
     <row r="186" spans="1:5" ht="18" thickBot="1">
       <c r="A186" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>335</v>
+        <v>342</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D186" s="5">
         <v>126.7388444</v>
@@ -5426,13 +5421,13 @@
     </row>
     <row r="187" spans="1:5" ht="18" thickBot="1">
       <c r="A187" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>335</v>
+        <v>344</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D187" s="5">
         <v>126.88275280000001</v>
@@ -5443,13 +5438,13 @@
     </row>
     <row r="188" spans="1:5" ht="18" thickBot="1">
       <c r="A188" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>335</v>
+        <v>346</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D188" s="5">
         <v>126.71286670000001</v>
@@ -5460,13 +5455,13 @@
     </row>
     <row r="189" spans="1:5" ht="18" thickBot="1">
       <c r="A189" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>335</v>
+        <v>348</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D189" s="5">
         <v>127.3925</v>
@@ -5477,13 +5472,13 @@
     </row>
     <row r="190" spans="1:5" ht="18" thickBot="1">
       <c r="A190" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>335</v>
+        <v>350</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D190" s="5">
         <v>126.9901639</v>
@@ -5494,13 +5489,13 @@
     </row>
     <row r="191" spans="1:5" ht="18" thickBot="1">
       <c r="A191" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>335</v>
+        <v>352</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D191" s="5">
         <v>126.3944194</v>
@@ -5511,13 +5506,13 @@
     </row>
     <row r="192" spans="1:5" ht="18" thickBot="1">
       <c r="A192" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>335</v>
+        <v>354</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D192" s="5">
         <v>126.4837</v>
@@ -5528,13 +5523,13 @@
     </row>
     <row r="193" spans="1:5" ht="18" thickBot="1">
       <c r="A193" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>335</v>
+        <v>356</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D193" s="5">
         <v>127.6628667</v>
@@ -5545,13 +5540,13 @@
     </row>
     <row r="194" spans="1:5" ht="18" thickBot="1">
       <c r="A194" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>335</v>
+        <v>358</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D194" s="5">
         <v>127.0820889</v>
@@ -5562,13 +5557,13 @@
     </row>
     <row r="195" spans="1:5" ht="18" thickBot="1">
       <c r="A195" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>335</v>
+        <v>360</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D195" s="5">
         <v>126.7356778</v>
@@ -5579,13 +5574,13 @@
     </row>
     <row r="196" spans="1:5" ht="18" thickBot="1">
       <c r="A196" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>335</v>
+        <v>362</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D196" s="5">
         <v>127.1396306</v>
@@ -5596,13 +5591,13 @@
     </row>
     <row r="197" spans="1:5" ht="18" thickBot="1">
       <c r="A197" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>335</v>
+        <v>364</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D197" s="5">
         <v>127.4893306</v>
@@ -5613,13 +5608,13 @@
     </row>
     <row r="198" spans="1:5" ht="18" thickBot="1">
       <c r="A198" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>335</v>
+        <v>366</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D198" s="5">
         <v>126.3817306</v>
@@ -5630,13 +5625,13 @@
     </row>
     <row r="199" spans="1:5" ht="18" thickBot="1">
       <c r="A199" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>335</v>
+        <v>368</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D199" s="5">
         <v>127.6643861</v>
@@ -5647,13 +5642,13 @@
     </row>
     <row r="200" spans="1:5" ht="18" thickBot="1">
       <c r="A200" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>335</v>
+        <v>370</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D200" s="5">
         <v>126.5140861</v>
@@ -5664,13 +5659,13 @@
     </row>
     <row r="201" spans="1:5" ht="18" thickBot="1">
       <c r="A201" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>335</v>
+        <v>372</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D201" s="5">
         <v>126.6986194</v>
@@ -5681,13 +5676,13 @@
     </row>
     <row r="202" spans="1:5" ht="18" thickBot="1">
       <c r="A202" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>335</v>
+        <v>374</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D202" s="5">
         <v>126.7570972</v>
@@ -5698,13 +5693,13 @@
     </row>
     <row r="203" spans="1:5" ht="18" thickBot="1">
       <c r="A203" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>335</v>
+        <v>376</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D203" s="5">
         <v>127.1495972</v>
@@ -5715,13 +5710,13 @@
     </row>
     <row r="204" spans="1:5" ht="18" thickBot="1">
       <c r="A204" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>335</v>
+        <v>378</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D204" s="5">
         <v>126.95985279999999</v>
@@ -5732,13 +5727,13 @@
     </row>
     <row r="205" spans="1:5" ht="18" thickBot="1">
       <c r="A205" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>335</v>
+        <v>380</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D205" s="5">
         <v>127.28475280000001</v>
@@ -5749,13 +5744,13 @@
     </row>
     <row r="206" spans="1:5" ht="18" thickBot="1">
       <c r="A206" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>335</v>
+        <v>382</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D206" s="5">
         <v>126.786975</v>
@@ -5766,13 +5761,13 @@
     </row>
     <row r="207" spans="1:5" ht="18" thickBot="1">
       <c r="A207" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>335</v>
+        <v>384</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D207" s="5">
         <v>127.52330000000001</v>
@@ -5783,13 +5778,13 @@
     </row>
     <row r="208" spans="1:5" ht="18" thickBot="1">
       <c r="A208" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>335</v>
+        <v>386</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D208" s="5">
         <v>126.9091083</v>
@@ -5800,13 +5795,13 @@
     </row>
     <row r="209" spans="1:5" ht="18" thickBot="1">
       <c r="A209" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>335</v>
+        <v>388</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D209" s="5">
         <v>127.1219194</v>
@@ -5817,13 +5812,13 @@
     </row>
     <row r="210" spans="1:5" ht="18" thickBot="1">
       <c r="A210" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>335</v>
+        <v>390</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D210" s="5">
         <v>126.8581111</v>
@@ -5834,13 +5829,13 @@
     </row>
     <row r="211" spans="1:5" ht="18" thickBot="1">
       <c r="A211" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>335</v>
+        <v>392</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D211" s="5">
         <v>126.2655444</v>
@@ -5851,13 +5846,13 @@
     </row>
     <row r="212" spans="1:5" ht="18" thickBot="1">
       <c r="A212" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>335</v>
+        <v>394</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D212" s="5">
         <v>127.42696669999999</v>
@@ -5868,13 +5863,13 @@
     </row>
     <row r="213" spans="1:5" ht="18" thickBot="1">
       <c r="A213" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>335</v>
+        <v>396</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D213" s="5">
         <v>126.51861940000001</v>
@@ -5885,13 +5880,13 @@
     </row>
     <row r="214" spans="1:5" ht="18" thickBot="1">
       <c r="A214" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>335</v>
+        <v>398</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D214" s="5">
         <v>126.6012889</v>
@@ -5902,13 +5897,13 @@
     </row>
     <row r="215" spans="1:5" ht="18" thickBot="1">
       <c r="A215" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>335</v>
+        <v>400</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D215" s="5">
         <v>126.98856670000001</v>
@@ -5919,13 +5914,13 @@
     </row>
     <row r="216" spans="1:5" ht="18" thickBot="1">
       <c r="A216" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B216" s="8" t="s">
-        <v>335</v>
+        <v>402</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D216" s="5">
         <v>127.2551569</v>
@@ -5936,13 +5931,13 @@
     </row>
     <row r="217" spans="1:5" ht="21" thickBot="1">
       <c r="A217" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>409</v>
+        <v>403</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D217" s="5">
         <v>126.5125556</v>
@@ -5953,13 +5948,13 @@
     </row>
     <row r="218" spans="1:5" ht="18" thickBot="1">
       <c r="A218" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D218" s="5">
         <v>126.5332083</v>
@@ -5970,13 +5965,13 @@
     </row>
     <row r="219" spans="1:5" ht="18" thickBot="1">
       <c r="A219" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>414</v>
+        <v>407</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D219" s="5">
         <v>128.60355279999999</v>
@@ -5987,13 +5982,13 @@
     </row>
     <row r="220" spans="1:5" ht="18" thickBot="1">
       <c r="A220" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D220" s="5">
         <v>127.2509306</v>
@@ -6004,13 +5999,13 @@
     </row>
     <row r="221" spans="1:5" ht="18" thickBot="1">
       <c r="A221" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D221" s="5">
         <v>127.23611200000001</v>
@@ -6021,13 +6016,13 @@
     </row>
     <row r="222" spans="1:5" ht="18" thickBot="1">
       <c r="A222" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B222" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="D222" s="5">
         <v>127.1211194</v>
@@ -6038,13 +6033,13 @@
     </row>
     <row r="223" spans="1:5" ht="18" thickBot="1">
       <c r="A223" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D223" s="5">
         <v>127.7888306</v>
@@ -6055,13 +6050,13 @@
     </row>
     <row r="224" spans="1:5" ht="21" thickBot="1">
       <c r="A224" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D224" s="5">
         <v>127.29562</v>
@@ -6072,13 +6067,13 @@
     </row>
     <row r="225" spans="1:5" ht="18" thickBot="1">
       <c r="A225" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>414</v>
+        <v>419</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D225" s="5">
         <v>127.28035</v>
@@ -6089,13 +6084,13 @@
     </row>
     <row r="226" spans="1:5" ht="18" thickBot="1">
       <c r="A226" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>414</v>
+        <v>421</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D226" s="5">
         <v>127.4903083</v>
@@ -6106,13 +6101,13 @@
     </row>
     <row r="227" spans="1:5" ht="18" thickBot="1">
       <c r="A227" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>414</v>
+        <v>423</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D227" s="5">
         <v>126.613277</v>
@@ -6123,13 +6118,13 @@
     </row>
     <row r="228" spans="1:5" ht="18" thickBot="1">
       <c r="A228" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>414</v>
+        <v>425</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D228" s="5">
         <v>126.613277</v>
@@ -6140,13 +6135,13 @@
     </row>
     <row r="229" spans="1:5" ht="21" thickBot="1">
       <c r="A229" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>414</v>
+        <v>427</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D229" s="5">
         <v>127.28944799999999</v>
@@ -6157,13 +6152,13 @@
     </row>
     <row r="230" spans="1:5" ht="18" thickBot="1">
       <c r="A230" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>414</v>
+        <v>429</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D230" s="5">
         <v>127.258565</v>
@@ -6174,13 +6169,13 @@
     </row>
     <row r="231" spans="1:5" ht="18" thickBot="1">
       <c r="A231" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>414</v>
+        <v>431</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D231" s="5">
         <v>127.1009111</v>
@@ -6191,13 +6186,13 @@
     </row>
     <row r="232" spans="1:5" ht="18" thickBot="1">
       <c r="A232" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>414</v>
+        <v>433</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D232" s="5">
         <v>127.252375</v>
@@ -6208,13 +6203,13 @@
     </row>
     <row r="233" spans="1:5" ht="18" thickBot="1">
       <c r="A233" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>414</v>
+        <v>435</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D233" s="5">
         <v>127.254501</v>
@@ -6225,13 +6220,13 @@
     </row>
     <row r="234" spans="1:5" ht="21" thickBot="1">
       <c r="A234" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>414</v>
+        <v>437</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D234" s="5">
         <v>127.241922</v>
@@ -6242,13 +6237,13 @@
     </row>
     <row r="235" spans="1:5" ht="18" thickBot="1">
       <c r="A235" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>414</v>
+        <v>439</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D235" s="5">
         <v>127.234917</v>
@@ -6259,13 +6254,13 @@
     </row>
     <row r="236" spans="1:5" ht="21" thickBot="1">
       <c r="A236" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>414</v>
+        <v>441</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D236" s="5">
         <v>127.255849</v>
@@ -6276,13 +6271,13 @@
     </row>
     <row r="237" spans="1:5" ht="21" thickBot="1">
       <c r="A237" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>414</v>
+        <v>443</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D237" s="5">
         <v>127.246898</v>
@@ -6293,13 +6288,13 @@
     </row>
     <row r="238" spans="1:5" ht="18" thickBot="1">
       <c r="A238" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>414</v>
+        <v>445</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D238" s="5">
         <v>128.36784170000001</v>
@@ -6310,13 +6305,13 @@
     </row>
     <row r="239" spans="1:5" ht="18" thickBot="1">
       <c r="A239" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>414</v>
+        <v>447</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D239" s="5">
         <v>127.24630000000001</v>
@@ -6327,13 +6322,13 @@
     </row>
     <row r="240" spans="1:5" ht="18" thickBot="1">
       <c r="A240" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>414</v>
+        <v>449</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D240" s="5">
         <v>127.25066</v>
@@ -6344,13 +6339,13 @@
     </row>
     <row r="241" spans="1:5" ht="18" thickBot="1">
       <c r="A241" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>414</v>
+        <v>451</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D241" s="5">
         <v>127.684597</v>
@@ -6361,13 +6356,13 @@
     </row>
     <row r="242" spans="1:5" ht="18" thickBot="1">
       <c r="A242" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>414</v>
+        <v>453</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D242" s="5">
         <v>126.63025279999999</v>
@@ -6378,13 +6373,13 @@
     </row>
     <row r="243" spans="1:5" ht="18" thickBot="1">
       <c r="A243" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>414</v>
+        <v>455</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D243" s="5">
         <v>127.28258099999999</v>
@@ -6395,13 +6390,13 @@
     </row>
     <row r="244" spans="1:5" ht="18" thickBot="1">
       <c r="A244" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>414</v>
+        <v>573</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D244" s="5">
         <v>127.2623972</v>
@@ -6412,13 +6407,13 @@
     </row>
     <row r="245" spans="1:5" ht="18" thickBot="1">
       <c r="A245" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>414</v>
+        <v>574</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D245" s="5">
         <v>127.24761100000001</v>
@@ -6429,13 +6424,13 @@
     </row>
     <row r="246" spans="1:5" ht="18" thickBot="1">
       <c r="A246" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>414</v>
+        <v>575</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D246" s="5">
         <v>127.249982</v>
@@ -6446,13 +6441,13 @@
     </row>
     <row r="247" spans="1:5" ht="18" thickBot="1">
       <c r="A247" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>414</v>
+        <v>460</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D247" s="5">
         <v>127.23222199999999</v>
@@ -6463,13 +6458,13 @@
     </row>
     <row r="248" spans="1:5" ht="21" thickBot="1">
       <c r="A248" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>414</v>
+        <v>462</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D248" s="5">
         <v>127.236121</v>
@@ -6480,13 +6475,13 @@
     </row>
     <row r="249" spans="1:5" ht="21" thickBot="1">
       <c r="A249" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>414</v>
+        <v>464</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D249" s="5">
         <v>127.236121</v>
@@ -6497,13 +6492,13 @@
     </row>
     <row r="250" spans="1:5" ht="18" thickBot="1">
       <c r="A250" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>414</v>
+        <v>466</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D250" s="5">
         <v>127.160304</v>
@@ -6514,13 +6509,13 @@
     </row>
     <row r="251" spans="1:5" ht="18" thickBot="1">
       <c r="A251" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>414</v>
+        <v>468</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D251" s="5">
         <v>127.265305</v>
@@ -6531,13 +6526,13 @@
     </row>
     <row r="252" spans="1:5" ht="18" thickBot="1">
       <c r="A252" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>414</v>
+        <v>470</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D252" s="5">
         <v>127.265305</v>
@@ -6548,13 +6543,13 @@
     </row>
     <row r="253" spans="1:5" ht="18" thickBot="1">
       <c r="A253" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>414</v>
+        <v>472</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D253" s="5">
         <v>127.265305</v>
@@ -6565,13 +6560,13 @@
     </row>
     <row r="254" spans="1:5" ht="18" thickBot="1">
       <c r="A254" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>414</v>
+        <v>474</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D254" s="5">
         <v>127.28094</v>
@@ -6582,13 +6577,13 @@
     </row>
     <row r="255" spans="1:5" ht="21" thickBot="1">
       <c r="A255" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>414</v>
+        <v>476</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D255" s="5">
         <v>127.28094</v>
@@ -6599,13 +6594,13 @@
     </row>
     <row r="256" spans="1:5" ht="18" thickBot="1">
       <c r="A256" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>414</v>
+        <v>478</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D256" s="5">
         <v>127.28094</v>
@@ -6616,13 +6611,13 @@
     </row>
     <row r="257" spans="1:5" ht="18" thickBot="1">
       <c r="A257" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>414</v>
+        <v>480</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D257" s="5">
         <v>126.61488610000001</v>
@@ -6633,13 +6628,13 @@
     </row>
     <row r="258" spans="1:5" ht="18" thickBot="1">
       <c r="A258" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>414</v>
+        <v>482</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D258" s="5">
         <v>127.7316083</v>
@@ -6650,13 +6645,13 @@
     </row>
     <row r="259" spans="1:5" ht="18" thickBot="1">
       <c r="A259" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>414</v>
+        <v>484</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D259" s="5">
         <v>127.37037599999999</v>
@@ -6667,13 +6662,13 @@
     </row>
     <row r="260" spans="1:5" ht="18" thickBot="1">
       <c r="A260" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>414</v>
+        <v>486</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D260" s="5">
         <v>126.9118639</v>
@@ -6684,13 +6679,13 @@
     </row>
     <row r="261" spans="1:5" ht="21" thickBot="1">
       <c r="A261" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>414</v>
+        <v>488</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D261" s="5">
         <v>127.254403</v>
@@ -6701,13 +6696,13 @@
     </row>
     <row r="262" spans="1:5" ht="18" thickBot="1">
       <c r="A262" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>414</v>
+        <v>490</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D262" s="5">
         <v>127.254403</v>
@@ -6718,13 +6713,13 @@
     </row>
     <row r="263" spans="1:5" ht="21" thickBot="1">
       <c r="A263" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>414</v>
+        <v>492</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D263" s="5">
         <v>127.254403</v>
@@ -6735,13 +6730,13 @@
     </row>
     <row r="264" spans="1:5" ht="21" thickBot="1">
       <c r="A264" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>414</v>
+        <v>494</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D264" s="5">
         <v>127.254403</v>
@@ -6752,13 +6747,13 @@
     </row>
     <row r="265" spans="1:5" ht="18" thickBot="1">
       <c r="A265" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>414</v>
+        <v>496</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D265" s="5">
         <v>126.4521639</v>
@@ -6769,13 +6764,13 @@
     </row>
     <row r="266" spans="1:5" ht="18" thickBot="1">
       <c r="A266" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>414</v>
+        <v>498</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D266" s="5">
         <v>126.6938889</v>
@@ -6786,13 +6781,13 @@
     </row>
     <row r="267" spans="1:5" ht="18" thickBot="1">
       <c r="A267" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>414</v>
+        <v>500</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D267" s="5">
         <v>127.3000509</v>
@@ -6803,13 +6798,13 @@
     </row>
     <row r="268" spans="1:5" ht="18" thickBot="1">
       <c r="A268" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>414</v>
+        <v>502</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D268" s="5">
         <v>127.1582525</v>
@@ -6820,13 +6815,13 @@
     </row>
     <row r="269" spans="1:5" ht="21" thickBot="1">
       <c r="A269" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>414</v>
+        <v>504</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D269" s="5">
         <v>127.29695599999999</v>
@@ -6837,13 +6832,13 @@
     </row>
     <row r="270" spans="1:5" ht="18" thickBot="1">
       <c r="A270" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>414</v>
+        <v>506</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D270" s="5">
         <v>127.2482222</v>
@@ -6854,13 +6849,13 @@
     </row>
     <row r="271" spans="1:5" ht="18" thickBot="1">
       <c r="A271" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>414</v>
+        <v>508</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D271" s="5">
         <v>127.00464169999999</v>
@@ -6871,13 +6866,13 @@
     </row>
     <row r="272" spans="1:5" ht="18" thickBot="1">
       <c r="A272" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>414</v>
+        <v>510</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D272" s="5">
         <v>127.282781</v>
@@ -6888,13 +6883,13 @@
     </row>
     <row r="273" spans="1:5" ht="18" thickBot="1">
       <c r="A273" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>414</v>
+        <v>512</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D273" s="5">
         <v>127.2737741</v>
@@ -6905,13 +6900,13 @@
     </row>
     <row r="274" spans="1:5" ht="18" thickBot="1">
       <c r="A274" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>414</v>
+        <v>514</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D274" s="5">
         <v>127.32686579999999</v>
@@ -6922,13 +6917,13 @@
     </row>
     <row r="275" spans="1:5" ht="18" thickBot="1">
       <c r="A275" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>414</v>
+        <v>516</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D275" s="5">
         <v>127.2716217</v>
@@ -6939,13 +6934,13 @@
     </row>
     <row r="276" spans="1:5" ht="18" thickBot="1">
       <c r="A276" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>414</v>
+        <v>518</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D276" s="5">
         <v>127.7856111</v>
@@ -6956,13 +6951,13 @@
     </row>
     <row r="277" spans="1:5" ht="18" thickBot="1">
       <c r="A277" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>414</v>
+        <v>520</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D277" s="5">
         <v>126.850875</v>
@@ -6973,13 +6968,13 @@
     </row>
     <row r="278" spans="1:5" ht="18" thickBot="1">
       <c r="A278" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>414</v>
+        <v>522</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D278" s="5">
         <v>127.5736333</v>
@@ -6990,13 +6985,13 @@
     </row>
     <row r="279" spans="1:5" ht="18" thickBot="1">
       <c r="A279" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>414</v>
+        <v>524</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D279" s="5">
         <v>127.6926222</v>
@@ -7007,13 +7002,13 @@
     </row>
     <row r="280" spans="1:5" ht="18" thickBot="1">
       <c r="A280" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>414</v>
+        <v>526</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D280" s="5">
         <v>127.2056006</v>
@@ -7024,13 +7019,13 @@
     </row>
     <row r="281" spans="1:5" ht="18" thickBot="1">
       <c r="A281" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>414</v>
+        <v>528</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D281" s="5">
         <v>127.19551250000001</v>
@@ -7041,13 +7036,13 @@
     </row>
     <row r="282" spans="1:5" ht="18" thickBot="1">
       <c r="A282" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>414</v>
+        <v>530</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D282" s="5">
         <v>127.26250899999999</v>
@@ -7058,13 +7053,13 @@
     </row>
     <row r="283" spans="1:5" ht="18" thickBot="1">
       <c r="A283" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>414</v>
+        <v>532</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D283" s="5">
         <v>128.19315280000001</v>
@@ -7075,13 +7070,13 @@
     </row>
     <row r="284" spans="1:5" ht="21" thickBot="1">
       <c r="A284" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>414</v>
+        <v>534</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D284" s="5">
         <v>127.298399</v>
@@ -7092,13 +7087,13 @@
     </row>
     <row r="285" spans="1:5" ht="18" thickBot="1">
       <c r="A285" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>414</v>
+        <v>536</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D285" s="5">
         <v>127.247612</v>
@@ -7109,13 +7104,13 @@
     </row>
     <row r="286" spans="1:5" ht="18" thickBot="1">
       <c r="A286" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>414</v>
+        <v>538</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D286" s="5">
         <v>127.5832889</v>
@@ -7126,13 +7121,13 @@
     </row>
     <row r="287" spans="1:5" ht="18" thickBot="1">
       <c r="A287" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>414</v>
+        <v>540</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D287" s="5">
         <v>127.4376444</v>
@@ -7143,13 +7138,13 @@
     </row>
     <row r="288" spans="1:5" ht="18" thickBot="1">
       <c r="A288" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>414</v>
+        <v>542</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D288" s="5">
         <v>127.15246670000001</v>
@@ -7160,13 +7155,13 @@
     </row>
     <row r="289" spans="1:5" ht="18" thickBot="1">
       <c r="A289" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>414</v>
+        <v>544</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D289" s="5">
         <v>126.8042556</v>
@@ -7177,13 +7172,13 @@
     </row>
     <row r="290" spans="1:5" ht="18" thickBot="1">
       <c r="A290" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>414</v>
+        <v>546</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D290" s="5">
         <v>127.431119</v>
@@ -7194,13 +7189,13 @@
     </row>
     <row r="291" spans="1:5" ht="18" thickBot="1">
       <c r="A291" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>414</v>
+        <v>548</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D291" s="5">
         <v>127.51173060000001</v>
@@ -7211,13 +7206,13 @@
     </row>
     <row r="292" spans="1:5" ht="18" thickBot="1">
       <c r="A292" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>414</v>
+        <v>550</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D292" s="5">
         <v>127.92814439999999</v>
@@ -7228,13 +7223,13 @@
     </row>
     <row r="293" spans="1:5" ht="18" thickBot="1">
       <c r="A293" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>414</v>
+        <v>552</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D293" s="5">
         <v>126.299975</v>
@@ -7245,13 +7240,13 @@
     </row>
     <row r="294" spans="1:5" ht="21" thickBot="1">
       <c r="A294" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>414</v>
+        <v>554</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D294" s="5">
         <v>127.28992599999999</v>
@@ -7262,13 +7257,13 @@
     </row>
     <row r="295" spans="1:5" ht="18" thickBot="1">
       <c r="A295" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>414</v>
+        <v>556</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D295" s="5">
         <v>126.6629083</v>
@@ -7279,13 +7274,13 @@
     </row>
     <row r="296" spans="1:5" ht="18" thickBot="1">
       <c r="A296" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>414</v>
+        <v>558</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D296" s="5">
         <v>127.38486159999999</v>
@@ -7300,5 +7295,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/docity.xlsx
+++ b/data/docity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/297c1cd2404e0bb9/바탕 화면/solution-challenge/shield-front/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{5A02C002-B127-44EE-8444-2D82B2453B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBD80A43-10E6-428C-8F6F-155E5217139F}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{5A02C002-B127-44EE-8444-2D82B2453B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58656A9F-C0C1-4E2B-B437-492B43FE0D9C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CA05437-BCEC-4CFB-AF07-8F30FDCEC6CE}"/>
+    <workbookView xWindow="11532" yWindow="1488" windowWidth="11268" windowHeight="8880" xr2:uid="{9CA05437-BCEC-4CFB-AF07-8F30FDCEC6CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>강원강릉시</t>
   </si>
   <si>
-    <t>강릉시</t>
-  </si>
-  <si>
     <t>강원고성군</t>
   </si>
   <si>
@@ -1765,13 +1762,17 @@
   </si>
   <si>
     <t>Chungcheong-do움3로</t>
+  </si>
+  <si>
+    <t>강릉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1805,6 +1806,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1887,7 +1895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1915,6 +1923,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1930,6 +1941,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2251,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBB9619-BF94-44CA-8B8F-35BA8AF17E8E}">
   <dimension ref="A1:E297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2265,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2279,10 +2294,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>567</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>575</v>
       </c>
       <c r="D2" s="5">
         <v>128.8784972</v>
@@ -2293,13 +2308,13 @@
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="5">
         <v>128.47016389999999</v>
@@ -2310,13 +2325,13 @@
     </row>
     <row r="4" spans="1:5" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>129.11663329999999</v>
@@ -2327,13 +2342,13 @@
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>129.1674889</v>
@@ -2344,13 +2359,13 @@
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="5">
         <v>128.59416669999999</v>
@@ -2361,13 +2376,13 @@
     </row>
     <row r="7" spans="1:5" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>127.9922444</v>
@@ -2378,13 +2393,13 @@
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="5">
         <v>128.62135559999999</v>
@@ -2395,13 +2410,13 @@
     </row>
     <row r="9" spans="1:5" ht="18" thickBot="1">
       <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>128.46401940000001</v>
@@ -2412,13 +2427,13 @@
     </row>
     <row r="10" spans="1:5" ht="18" thickBot="1">
       <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>127.92205559999999</v>
@@ -2429,13 +2444,13 @@
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="5">
         <v>128.17269719999999</v>
@@ -2446,13 +2461,13 @@
     </row>
     <row r="12" spans="1:5" ht="18" thickBot="1">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="5">
         <v>128.66308609999999</v>
@@ -2463,13 +2478,13 @@
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1">
       <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="5">
         <v>127.31573330000001</v>
@@ -2480,13 +2495,13 @@
     </row>
     <row r="14" spans="1:5" ht="18" thickBot="1">
       <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="5">
         <v>127.7323111</v>
@@ -2497,13 +2512,13 @@
     </row>
     <row r="15" spans="1:5" ht="18" thickBot="1">
       <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="5">
         <v>128.9879972</v>
@@ -2514,13 +2529,13 @@
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1">
       <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="5">
         <v>128.3923528</v>
@@ -2531,13 +2546,13 @@
     </row>
     <row r="17" spans="1:5" ht="18" thickBot="1">
       <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D17" s="5">
         <v>127.8908417</v>
@@ -2548,13 +2563,13 @@
     </row>
     <row r="18" spans="1:5" ht="18" thickBot="1">
       <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="5">
         <v>127.7103556</v>
@@ -2565,13 +2580,13 @@
     </row>
     <row r="19" spans="1:5" ht="18" thickBot="1">
       <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="5">
         <v>127.98722220000001</v>
@@ -2582,13 +2597,13 @@
     </row>
     <row r="20" spans="1:5" ht="18" thickBot="1">
       <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="5">
         <v>127.5117778</v>
@@ -2599,13 +2614,13 @@
     </row>
     <row r="21" spans="1:5" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="5">
         <v>126.49</v>
@@ -2616,13 +2631,13 @@
     </row>
     <row r="22" spans="1:5" ht="18" thickBot="1">
       <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D22" s="5">
         <v>126.7770556</v>
@@ -2633,13 +2648,13 @@
     </row>
     <row r="23" spans="1:5" ht="18" thickBot="1">
       <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="5">
         <v>126.9898</v>
@@ -2650,13 +2665,13 @@
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1">
       <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>126.8667083</v>
@@ -2667,13 +2682,13 @@
     </row>
     <row r="25" spans="1:5" ht="18" thickBot="1">
       <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="5">
         <v>127.2577861</v>
@@ -2684,13 +2699,13 @@
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1">
       <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="5">
         <v>127.1318639</v>
@@ -2701,13 +2716,13 @@
     </row>
     <row r="27" spans="1:5" ht="18" thickBot="1">
       <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="5">
         <v>126.9375</v>
@@ -2718,13 +2733,13 @@
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1">
       <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D28" s="5">
         <v>126.71777779999999</v>
@@ -2735,13 +2750,13 @@
     </row>
     <row r="29" spans="1:5" ht="21" thickBot="1">
       <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D29" s="5">
         <v>127.21863329999999</v>
@@ -2752,13 +2767,13 @@
     </row>
     <row r="30" spans="1:5" ht="21" thickBot="1">
       <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D30" s="5">
         <v>127.0626528</v>
@@ -2769,13 +2784,13 @@
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1">
       <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D31" s="5">
         <v>126.76600000000001</v>
@@ -2786,13 +2801,13 @@
     </row>
     <row r="32" spans="1:5" ht="18" thickBot="1">
       <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="5">
         <v>127.1477194</v>
@@ -2803,13 +2818,13 @@
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1">
       <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="5">
         <v>127.0122222</v>
@@ -2820,13 +2835,13 @@
     </row>
     <row r="34" spans="1:5" ht="18" thickBot="1">
       <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D34" s="5">
         <v>126.80507780000001</v>
@@ -2837,13 +2852,13 @@
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1">
       <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>126.8468194</v>
@@ -2854,13 +2869,13 @@
     </row>
     <row r="36" spans="1:5" ht="18" thickBot="1">
       <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D36" s="5">
         <v>127.2818444</v>
@@ -2871,13 +2886,13 @@
     </row>
     <row r="37" spans="1:5" ht="18" thickBot="1">
       <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="5">
         <v>126.95335559999999</v>
@@ -2888,13 +2903,13 @@
     </row>
     <row r="38" spans="1:5" ht="18" thickBot="1">
       <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D38" s="5">
         <v>127.04781939999999</v>
@@ -2905,13 +2920,13 @@
     </row>
     <row r="39" spans="1:5" ht="18" thickBot="1">
       <c r="A39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D39" s="5">
         <v>127.48988610000001</v>
@@ -2922,13 +2937,13 @@
     </row>
     <row r="40" spans="1:5" ht="18" thickBot="1">
       <c r="A40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D40" s="5">
         <v>127.652958</v>
@@ -2939,13 +2954,13 @@
     </row>
     <row r="41" spans="1:5" ht="18" thickBot="1">
       <c r="A41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D41" s="5">
         <v>127.63962220000001</v>
@@ -2956,13 +2971,13 @@
     </row>
     <row r="42" spans="1:5" ht="18" thickBot="1">
       <c r="A42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D42" s="5">
         <v>127.0770667</v>
@@ -2973,13 +2988,13 @@
     </row>
     <row r="43" spans="1:5" ht="18" thickBot="1">
       <c r="A43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D43" s="5">
         <v>127.0796417</v>
@@ -2990,13 +3005,13 @@
     </row>
     <row r="44" spans="1:5" ht="18" thickBot="1">
       <c r="A44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D44" s="5">
         <v>126.6388889</v>
@@ -3007,13 +3022,13 @@
     </row>
     <row r="45" spans="1:5" ht="18" thickBot="1">
       <c r="A45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D45" s="5">
         <v>127.20384439999999</v>
@@ -3024,13 +3039,13 @@
     </row>
     <row r="46" spans="1:5" ht="18" thickBot="1">
       <c r="A46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D46" s="5">
         <v>126.9703889</v>
@@ -3041,13 +3056,13 @@
     </row>
     <row r="47" spans="1:5" ht="21" thickBot="1">
       <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D47" s="5">
         <v>127.03584170000001</v>
@@ -3058,13 +3073,13 @@
     </row>
     <row r="48" spans="1:5" ht="18" thickBot="1">
       <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D48" s="5">
         <v>127.4432194</v>
@@ -3075,13 +3090,13 @@
     </row>
     <row r="49" spans="1:5" ht="18" thickBot="1">
       <c r="A49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D49" s="5">
         <v>126.7819528</v>
@@ -3092,13 +3107,13 @@
     </row>
     <row r="50" spans="1:5" ht="18" thickBot="1">
       <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D50" s="5">
         <v>127.11465560000001</v>
@@ -3109,13 +3124,13 @@
     </row>
     <row r="51" spans="1:5" ht="18" thickBot="1">
       <c r="A51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D51" s="5">
         <v>127.2024194</v>
@@ -3126,13 +3141,13 @@
     </row>
     <row r="52" spans="1:5" ht="18" thickBot="1">
       <c r="A52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D52" s="5">
         <v>127.217</v>
@@ -3143,13 +3158,13 @@
     </row>
     <row r="53" spans="1:5" ht="18" thickBot="1">
       <c r="A53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D53" s="5">
         <v>126.8335306</v>
@@ -3160,13 +3175,13 @@
     </row>
     <row r="54" spans="1:5" ht="21" thickBot="1">
       <c r="A54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D54" s="5">
         <v>126.7059186</v>
@@ -3175,15 +3190,15 @@
         <v>37.456173010000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18" thickBot="1">
+    <row r="55" spans="1:5" ht="21" thickBot="1">
       <c r="A55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D55" s="5">
         <v>128.6233556</v>
@@ -3192,15 +3207,15 @@
         <v>34.87735833</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" thickBot="1">
+    <row r="56" spans="1:5" ht="21" thickBot="1">
       <c r="A56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D56" s="5">
         <v>127.9116556</v>
@@ -3209,15 +3224,15 @@
         <v>35.683624999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" thickBot="1">
+    <row r="57" spans="1:5" ht="21" thickBot="1">
       <c r="A57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D57" s="5">
         <v>128.74346389999999</v>
@@ -3226,15 +3241,15 @@
         <v>35.822088890000003</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18" thickBot="1">
+    <row r="58" spans="1:5" ht="21" thickBot="1">
       <c r="A58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D58" s="5">
         <v>129.22702219999999</v>
@@ -3243,15 +3258,15 @@
         <v>35.853169440000002</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18" thickBot="1">
+    <row r="59" spans="1:5" ht="21" thickBot="1">
       <c r="A59" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D59" s="5">
         <v>128.2650222</v>
@@ -3260,15 +3275,15 @@
         <v>35.722986110000001</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" thickBot="1">
+    <row r="60" spans="1:5" ht="21" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="5">
         <v>128.3245417</v>
@@ -3277,15 +3292,15 @@
         <v>34.969900000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18" thickBot="1">
+    <row r="61" spans="1:5" ht="21" thickBot="1">
       <c r="A61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D61" s="5">
         <v>128.34677780000001</v>
@@ -3294,15 +3309,15 @@
         <v>36.116549999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18" thickBot="1">
+    <row r="62" spans="1:5" ht="21" thickBot="1">
       <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D62" s="5">
         <v>128.5750778</v>
@@ -3311,15 +3326,15 @@
         <v>36.239997219999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18" thickBot="1">
+    <row r="63" spans="1:5" ht="21" thickBot="1">
       <c r="A63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D63" s="5">
         <v>129.22447500000001</v>
@@ -3328,15 +3343,15 @@
         <v>35.241349999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" thickBot="1">
+    <row r="64" spans="1:5" ht="21" thickBot="1">
       <c r="A64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D64" s="5">
         <v>128.11580000000001</v>
@@ -3345,15 +3360,15 @@
         <v>36.136897220000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18" thickBot="1">
+    <row r="65" spans="1:5" ht="21" thickBot="1">
       <c r="A65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D65" s="5">
         <v>128.8916667</v>
@@ -3362,15 +3377,15 @@
         <v>35.225505560000002</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18" thickBot="1">
+    <row r="66" spans="1:5" ht="21" thickBot="1">
       <c r="A66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D66" s="5">
         <v>127.8944667</v>
@@ -3379,15 +3394,15 @@
         <v>34.83455833</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18" thickBot="1">
+    <row r="67" spans="1:5" ht="21" thickBot="1">
       <c r="A67" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D67" s="5">
         <v>128.43327500000001</v>
@@ -3396,15 +3411,15 @@
         <v>35.77168056</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18" thickBot="1">
+    <row r="68" spans="1:5" ht="21" thickBot="1">
       <c r="A68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D68" s="5">
         <v>128.56786299999999</v>
@@ -3413,15 +3428,15 @@
         <v>35.196874000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18" thickBot="1">
+    <row r="69" spans="1:5" ht="21" thickBot="1">
       <c r="A69" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D69" s="5">
         <v>128.18901940000001</v>
@@ -3430,15 +3445,15 @@
         <v>36.583630560000003</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="18" thickBot="1">
+    <row r="70" spans="1:5" ht="21" thickBot="1">
       <c r="A70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D70" s="5">
         <v>128.7489444</v>
@@ -3447,15 +3462,15 @@
         <v>35.50077778</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18" thickBot="1">
+    <row r="71" spans="1:5" ht="21" thickBot="1">
       <c r="A71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D71" s="5">
         <v>128.73487499999999</v>
@@ -3464,15 +3479,15 @@
         <v>36.890261109999997</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18" thickBot="1">
+    <row r="72" spans="1:5" ht="21" thickBot="1">
       <c r="A72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D72" s="5">
         <v>128.06677780000001</v>
@@ -3481,15 +3496,15 @@
         <v>35.000283330000002</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18" thickBot="1">
+    <row r="73" spans="1:5" ht="21" thickBot="1">
       <c r="A73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D73" s="5">
         <v>127.87561940000001</v>
@@ -3498,15 +3513,15 @@
         <v>35.412491670000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18" thickBot="1">
+    <row r="74" spans="1:5" ht="21" thickBot="1">
       <c r="A74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D74" s="5">
         <v>128.16126389999999</v>
@@ -3515,15 +3530,15 @@
         <v>36.407969440000002</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="18" thickBot="1">
+    <row r="75" spans="1:5" ht="21" thickBot="1">
       <c r="A75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D75" s="5">
         <v>128.28515279999999</v>
@@ -3532,15 +3547,15 @@
         <v>35.916211109999999</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="18" thickBot="1">
+    <row r="76" spans="1:5" ht="21" thickBot="1">
       <c r="A76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D76" s="5">
         <v>128.7316222</v>
@@ -3549,15 +3564,15 @@
         <v>36.565463889999997</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="18" thickBot="1">
+    <row r="77" spans="1:5" ht="21" thickBot="1">
       <c r="A77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D77" s="5">
         <v>129.0394111</v>
@@ -3566,15 +3581,15 @@
         <v>35.331927780000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="18" thickBot="1">
+    <row r="78" spans="1:5" ht="21" thickBot="1">
       <c r="A78" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D78" s="5">
         <v>129.3683556</v>
@@ -3583,15 +3598,15 @@
         <v>36.412102779999998</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18" thickBot="1">
+    <row r="79" spans="1:5" ht="21" thickBot="1">
       <c r="A79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D79" s="5">
         <v>129.11462220000001</v>
@@ -3600,15 +3615,15 @@
         <v>36.664275000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18" thickBot="1">
+    <row r="80" spans="1:5" ht="21" thickBot="1">
       <c r="A80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D80" s="5">
         <v>128.62634439999999</v>
@@ -3617,15 +3632,15 @@
         <v>36.802936109999997</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="18" thickBot="1">
+    <row r="81" spans="1:5" ht="21" thickBot="1">
       <c r="A81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D81" s="5">
         <v>128.940775</v>
@@ -3634,15 +3649,15 @@
         <v>35.970052780000003</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="18" thickBot="1">
+    <row r="82" spans="1:5" ht="21" thickBot="1">
       <c r="A82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D82" s="5">
         <v>128.4550222</v>
@@ -3651,15 +3666,15 @@
         <v>36.654949999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="18" thickBot="1">
+    <row r="83" spans="1:5" ht="21" thickBot="1">
       <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D83" s="5">
         <v>130.9037889</v>
@@ -3668,15 +3683,15 @@
         <v>37.480575000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="18" thickBot="1">
+    <row r="84" spans="1:5" ht="21" thickBot="1">
       <c r="A84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D84" s="5">
         <v>129.29716389999999</v>
@@ -3685,15 +3700,15 @@
         <v>35.530738890000002</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="18" thickBot="1">
+    <row r="85" spans="1:5" ht="21" thickBot="1">
       <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D85" s="5">
         <v>129.40278609999999</v>
@@ -3702,15 +3717,15 @@
         <v>36.990186110000003</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="18" thickBot="1">
+    <row r="86" spans="1:5" ht="21" thickBot="1">
       <c r="A86" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D86" s="5">
         <v>128.26382219999999</v>
@@ -3719,15 +3734,15 @@
         <v>35.319119440000001</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="18" thickBot="1">
+    <row r="87" spans="1:5" ht="21" thickBot="1">
       <c r="A87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D87" s="5">
         <v>128.69936390000001</v>
@@ -3736,15 +3751,15 @@
         <v>36.34975833</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="18" thickBot="1">
+    <row r="88" spans="1:5" ht="21" thickBot="1">
       <c r="A88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D88" s="5">
         <v>128.11000000000001</v>
@@ -3753,15 +3768,15 @@
         <v>35.17703333</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="18" thickBot="1">
+    <row r="89" spans="1:5" ht="21" thickBot="1">
       <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D89" s="5">
         <v>128.710081</v>
@@ -3770,15 +3785,15 @@
         <v>35.13306</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="18" thickBot="1">
+    <row r="90" spans="1:5" ht="21" thickBot="1">
       <c r="A90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D90" s="5">
         <v>128.4945333</v>
@@ -3787,15 +3802,15 @@
         <v>35.541536110000003</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="18" thickBot="1">
+    <row r="91" spans="1:5" ht="21" thickBot="1">
       <c r="A91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D91" s="5">
         <v>128.6401544</v>
@@ -3804,15 +3819,15 @@
         <v>35.254003300000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="18" thickBot="1">
+    <row r="92" spans="1:5" ht="21" thickBot="1">
       <c r="A92" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D92" s="5">
         <v>128.7362</v>
@@ -3821,15 +3836,15 @@
         <v>35.644311109999997</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="18" thickBot="1">
+    <row r="93" spans="1:5" ht="21" thickBot="1">
       <c r="A93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D93" s="5">
         <v>129.05940000000001</v>
@@ -3838,15 +3853,15 @@
         <v>36.433291670000003</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="18" thickBot="1">
+    <row r="94" spans="1:5" ht="21" thickBot="1">
       <c r="A94" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D94" s="5">
         <v>128.40379720000001</v>
@@ -3855,15 +3870,15 @@
         <v>35.992547219999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="18" thickBot="1">
+    <row r="95" spans="1:5" ht="21" thickBot="1">
       <c r="A95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D95" s="5">
         <v>128.43527779999999</v>
@@ -3872,15 +3887,15 @@
         <v>34.85125833</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="18" thickBot="1">
+    <row r="96" spans="1:5" ht="21" thickBot="1">
       <c r="A96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D96" s="5">
         <v>129.3616667</v>
@@ -3889,15 +3904,15 @@
         <v>36.005686109999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="18" thickBot="1">
+    <row r="97" spans="1:5" ht="21" thickBot="1">
       <c r="A97" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="D97" s="5">
         <v>127.7534306</v>
@@ -3906,15 +3921,15 @@
         <v>35.064202780000002</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18" thickBot="1">
+    <row r="98" spans="1:5" ht="21" thickBot="1">
       <c r="A98" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D98" s="5">
         <v>128.4087083</v>
@@ -3923,15 +3938,15 @@
         <v>35.269405560000003</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="18" thickBot="1">
+    <row r="99" spans="1:5" ht="21" thickBot="1">
       <c r="A99" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D99" s="5">
         <v>127.7274194</v>
@@ -3940,15 +3955,15 @@
         <v>35.517469439999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18" thickBot="1">
+    <row r="100" spans="1:5" ht="21" thickBot="1">
       <c r="A100" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D100" s="5">
         <v>128.16793060000001</v>
@@ -3957,15 +3972,15 @@
         <v>35.563616670000002</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18" thickBot="1">
+    <row r="101" spans="1:5" ht="21" thickBot="1">
       <c r="A101" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D101" s="5">
         <v>129.07499999999999</v>
@@ -3974,15 +3989,15 @@
         <v>35.1798</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="18" thickBot="1">
+    <row r="102" spans="1:5" ht="21" thickBot="1">
       <c r="A102" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D102" s="5">
         <v>128.60169999999999</v>
@@ -3991,15 +4006,15 @@
         <v>35.871499999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="18" thickBot="1">
+    <row r="103" spans="1:5" ht="21" thickBot="1">
       <c r="A103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D103" s="5">
         <v>129.31229999999999</v>
@@ -4010,13 +4025,13 @@
     </row>
     <row r="104" spans="1:5" ht="21" thickBot="1">
       <c r="A104" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D104" s="5">
         <v>126.793668</v>
@@ -4027,13 +4042,13 @@
     </row>
     <row r="105" spans="1:5" ht="18" thickBot="1">
       <c r="A105" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D105" s="5">
         <v>126.9025572</v>
@@ -4044,13 +4059,13 @@
     </row>
     <row r="106" spans="1:5" ht="18" thickBot="1">
       <c r="A106" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D106" s="5">
         <v>126.9230903</v>
@@ -4061,13 +4076,13 @@
     </row>
     <row r="107" spans="1:5" ht="18" thickBot="1">
       <c r="A107" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D107" s="5">
         <v>126.9010806</v>
@@ -4078,13 +4093,13 @@
     </row>
     <row r="108" spans="1:5" ht="18" thickBot="1">
       <c r="A108" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D108" s="5">
         <v>126.88950629999999</v>
@@ -4095,13 +4110,13 @@
     </row>
     <row r="109" spans="1:5" ht="21" thickBot="1">
       <c r="A109" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D109" s="5">
         <v>128.53506390000001</v>
@@ -4112,13 +4127,13 @@
     </row>
     <row r="110" spans="1:5" ht="21" thickBot="1">
       <c r="A110" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D110" s="5">
         <v>128.63286669999999</v>
@@ -4129,13 +4144,13 @@
     </row>
     <row r="111" spans="1:5" ht="18" thickBot="1">
       <c r="A111" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D111" s="5">
         <v>128.597702</v>
@@ -4146,13 +4161,13 @@
     </row>
     <row r="112" spans="1:5" ht="21" thickBot="1">
       <c r="A112" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D112" s="5">
         <v>128.5325905</v>
@@ -4163,13 +4178,13 @@
     </row>
     <row r="113" spans="1:5" ht="21" thickBot="1">
       <c r="A113" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113" s="5">
         <v>128.4313995</v>
@@ -4180,13 +4195,13 @@
     </row>
     <row r="114" spans="1:5" ht="18" thickBot="1">
       <c r="A114" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D114" s="5">
         <v>128.63555840000001</v>
@@ -4197,13 +4212,13 @@
     </row>
     <row r="115" spans="1:5" ht="18" thickBot="1">
       <c r="A115" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D115" s="5">
         <v>128.58289239999999</v>
@@ -4214,13 +4229,13 @@
     </row>
     <row r="116" spans="1:5" ht="18" thickBot="1">
       <c r="A116" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D116" s="5">
         <v>128.55916010000001</v>
@@ -4231,13 +4246,13 @@
     </row>
     <row r="117" spans="1:5" ht="21" thickBot="1">
       <c r="A117" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D117" s="5">
         <v>128.63070110000001</v>
@@ -4248,13 +4263,13 @@
     </row>
     <row r="118" spans="1:5" ht="18" thickBot="1">
       <c r="A118" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D118" s="5">
         <v>128.60617450000001</v>
@@ -4265,13 +4280,13 @@
     </row>
     <row r="119" spans="1:5" ht="21" thickBot="1">
       <c r="A119" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D119" s="5">
         <v>127.4170933</v>
@@ -4282,13 +4297,13 @@
     </row>
     <row r="120" spans="1:5" ht="18" thickBot="1">
       <c r="A120" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D120" s="5">
         <v>127.45485960000001</v>
@@ -4299,13 +4314,13 @@
     </row>
     <row r="121" spans="1:5" ht="18" thickBot="1">
       <c r="A121" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D121" s="5">
         <v>127.38341579999999</v>
@@ -4316,13 +4331,13 @@
     </row>
     <row r="122" spans="1:5" ht="21" thickBot="1">
       <c r="A122" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D122" s="5">
         <v>127.3561363</v>
@@ -4333,13 +4348,13 @@
     </row>
     <row r="123" spans="1:5" ht="18" thickBot="1">
       <c r="A123" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D123" s="5">
         <v>127.421381</v>
@@ -4350,13 +4365,13 @@
     </row>
     <row r="124" spans="1:5" ht="21" thickBot="1">
       <c r="A124" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D124" s="5">
         <v>128.98290829999999</v>
@@ -4367,13 +4382,13 @@
     </row>
     <row r="125" spans="1:5" ht="21" thickBot="1">
       <c r="A125" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="D125" s="5">
         <v>129.09431939999999</v>
@@ -4384,13 +4399,13 @@
     </row>
     <row r="126" spans="1:5" ht="18" thickBot="1">
       <c r="A126" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D126" s="5">
         <v>129.0865</v>
@@ -4401,13 +4416,13 @@
     </row>
     <row r="127" spans="1:5" ht="18" thickBot="1">
       <c r="A127" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D127" s="5">
         <v>129.05917500000001</v>
@@ -4418,13 +4433,13 @@
     </row>
     <row r="128" spans="1:5" ht="21" thickBot="1">
       <c r="A128" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="D128" s="5">
         <v>129.0858556</v>
@@ -4435,13 +4450,13 @@
     </row>
     <row r="129" spans="1:5" ht="21" thickBot="1">
       <c r="A129" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D129" s="5">
         <v>129.0553194</v>
@@ -4452,13 +4467,13 @@
     </row>
     <row r="130" spans="1:5" ht="18" thickBot="1">
       <c r="A130" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D130" s="5">
         <v>128.99247500000001</v>
@@ -4469,13 +4484,13 @@
     </row>
     <row r="131" spans="1:5" ht="21" thickBot="1">
       <c r="A131" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="D131" s="5">
         <v>128.99333329999999</v>
@@ -4486,13 +4501,13 @@
     </row>
     <row r="132" spans="1:5" ht="21" thickBot="1">
       <c r="A132" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="D132" s="5">
         <v>128.9770417</v>
@@ -4503,13 +4518,13 @@
     </row>
     <row r="133" spans="1:5" ht="18" thickBot="1">
       <c r="A133" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D133" s="5">
         <v>129.02637780000001</v>
@@ -4520,13 +4535,13 @@
     </row>
     <row r="134" spans="1:5" ht="21" thickBot="1">
       <c r="A134" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="D134" s="5">
         <v>129.115375</v>
@@ -4537,13 +4552,13 @@
     </row>
     <row r="135" spans="1:5" ht="21" thickBot="1">
       <c r="A135" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="D135" s="5">
         <v>129.082075</v>
@@ -4554,13 +4569,13 @@
     </row>
     <row r="136" spans="1:5" ht="21" thickBot="1">
       <c r="A136" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="D136" s="5">
         <v>129.0701861</v>
@@ -4571,13 +4586,13 @@
     </row>
     <row r="137" spans="1:5" ht="18" thickBot="1">
       <c r="A137" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D137" s="5">
         <v>129.0345083</v>
@@ -4588,13 +4603,13 @@
     </row>
     <row r="138" spans="1:5" ht="21" thickBot="1">
       <c r="A138" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="D138" s="5">
         <v>129.16580830000001</v>
@@ -4605,13 +4620,13 @@
     </row>
     <row r="139" spans="1:5" ht="21" thickBot="1">
       <c r="A139" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D139" s="5">
         <v>129.2222873</v>
@@ -4622,13 +4637,13 @@
     </row>
     <row r="140" spans="1:5" ht="18" thickBot="1">
       <c r="A140" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="D140" s="5">
         <v>127.04955560000001</v>
@@ -4639,13 +4654,13 @@
     </row>
     <row r="141" spans="1:5" ht="18" thickBot="1">
       <c r="A141" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="D141" s="5">
         <v>127.1258639</v>
@@ -4656,13 +4671,13 @@
     </row>
     <row r="142" spans="1:5" ht="18" thickBot="1">
       <c r="A142" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="D142" s="5">
         <v>127.0277194</v>
@@ -4673,13 +4688,13 @@
     </row>
     <row r="143" spans="1:5" ht="18" thickBot="1">
       <c r="A143" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D143" s="5">
         <v>126.851675</v>
@@ -4690,13 +4705,13 @@
     </row>
     <row r="144" spans="1:5" ht="18" thickBot="1">
       <c r="A144" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="D144" s="5">
         <v>126.95384439999999</v>
@@ -4707,13 +4722,13 @@
     </row>
     <row r="145" spans="1:5" ht="18" thickBot="1">
       <c r="A145" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="D145" s="5">
         <v>127.0845333</v>
@@ -4724,13 +4739,13 @@
     </row>
     <row r="146" spans="1:5" ht="18" thickBot="1">
       <c r="A146" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="D146" s="5">
         <v>126.8895972</v>
@@ -4741,13 +4756,13 @@
     </row>
     <row r="147" spans="1:5" ht="18" thickBot="1">
       <c r="A147" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="D147" s="5">
         <v>126.9041972</v>
@@ -4758,13 +4773,13 @@
     </row>
     <row r="148" spans="1:5" ht="18" thickBot="1">
       <c r="A148" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="D148" s="5">
         <v>127.0583889</v>
@@ -4775,13 +4790,13 @@
     </row>
     <row r="149" spans="1:5" ht="18" thickBot="1">
       <c r="A149" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D149" s="5">
         <v>127.0495222</v>
@@ -4792,13 +4807,13 @@
     </row>
     <row r="150" spans="1:5" ht="21" thickBot="1">
       <c r="A150" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="D150" s="5">
         <v>127.0421417</v>
@@ -4809,13 +4824,13 @@
     </row>
     <row r="151" spans="1:5" ht="18" thickBot="1">
       <c r="A151" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="D151" s="5">
         <v>126.941575</v>
@@ -4826,13 +4841,13 @@
     </row>
     <row r="152" spans="1:5" ht="18" thickBot="1">
       <c r="A152" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="D152" s="5">
         <v>126.9105306</v>
@@ -4843,13 +4858,13 @@
     </row>
     <row r="153" spans="1:5" ht="21" thickBot="1">
       <c r="A153" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="D153" s="5">
         <v>126.9388972</v>
@@ -4860,13 +4875,13 @@
     </row>
     <row r="154" spans="1:5" ht="18" thickBot="1">
       <c r="A154" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="D154" s="5">
         <v>127.0348111</v>
@@ -4877,13 +4892,13 @@
     </row>
     <row r="155" spans="1:5" ht="18" thickBot="1">
       <c r="A155" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="D155" s="5">
         <v>127.039</v>
@@ -4894,13 +4909,13 @@
     </row>
     <row r="156" spans="1:5" ht="18" thickBot="1">
       <c r="A156" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="D156" s="5">
         <v>127.0203333</v>
@@ -4911,13 +4926,13 @@
     </row>
     <row r="157" spans="1:5" ht="18" thickBot="1">
       <c r="A157" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="D157" s="5">
         <v>127.1079306</v>
@@ -4928,13 +4943,13 @@
     </row>
     <row r="158" spans="1:5" ht="18" thickBot="1">
       <c r="A158" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="D158" s="5">
         <v>126.86870829999999</v>
@@ -4945,13 +4960,13 @@
     </row>
     <row r="159" spans="1:5" ht="21" thickBot="1">
       <c r="A159" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="D159" s="5">
         <v>126.8983417</v>
@@ -4962,13 +4977,13 @@
     </row>
     <row r="160" spans="1:5" ht="18" thickBot="1">
       <c r="A160" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="D160" s="5">
         <v>126.9675222</v>
@@ -4979,13 +4994,13 @@
     </row>
     <row r="161" spans="1:5" ht="18" thickBot="1">
       <c r="A161" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="D161" s="5">
         <v>126.9312417</v>
@@ -4996,13 +5011,13 @@
     </row>
     <row r="162" spans="1:5" ht="18" thickBot="1">
       <c r="A162" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="D162" s="5">
         <v>126.9816417</v>
@@ -5013,13 +5028,13 @@
     </row>
     <row r="163" spans="1:5" ht="18" thickBot="1">
       <c r="A163" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D163" s="5">
         <v>126.9996417</v>
@@ -5030,13 +5045,13 @@
     </row>
     <row r="164" spans="1:5" ht="18" thickBot="1">
       <c r="A164" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="D164" s="5">
         <v>127.0947778</v>
@@ -5047,13 +5062,13 @@
     </row>
     <row r="165" spans="1:5" ht="18" thickBot="1">
       <c r="A165" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D165" s="5">
         <v>129.3301754</v>
@@ -5064,13 +5079,13 @@
     </row>
     <row r="166" spans="1:5" ht="18" thickBot="1">
       <c r="A166" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D166" s="5">
         <v>129.41669189999999</v>
@@ -5081,13 +5096,13 @@
     </row>
     <row r="167" spans="1:5" ht="18" thickBot="1">
       <c r="A167" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D167" s="5">
         <v>129.361245</v>
@@ -5098,13 +5113,13 @@
     </row>
     <row r="168" spans="1:5" ht="21" thickBot="1">
       <c r="A168" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D168" s="5">
         <v>129.2424748</v>
@@ -5115,13 +5130,13 @@
     </row>
     <row r="169" spans="1:5" ht="18" thickBot="1">
       <c r="A169" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D169" s="5">
         <v>129.3328162</v>
@@ -5132,13 +5147,13 @@
     </row>
     <row r="170" spans="1:5" ht="21" thickBot="1">
       <c r="A170" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D170" s="5">
         <v>126.4878417</v>
@@ -5149,13 +5164,13 @@
     </row>
     <row r="171" spans="1:5" ht="21" thickBot="1">
       <c r="A171" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="D171" s="5">
         <v>126.73774400000001</v>
@@ -5166,13 +5181,13 @@
     </row>
     <row r="172" spans="1:5" ht="18" thickBot="1">
       <c r="A172" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D172" s="5">
         <v>126.6502972</v>
@@ -5183,13 +5198,13 @@
     </row>
     <row r="173" spans="1:5" ht="21" thickBot="1">
       <c r="A173" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="D173" s="5">
         <v>126.7309669</v>
@@ -5200,13 +5215,13 @@
     </row>
     <row r="174" spans="1:5" ht="18" thickBot="1">
       <c r="A174" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D174" s="5">
         <v>126.6432441</v>
@@ -5217,13 +5232,13 @@
     </row>
     <row r="175" spans="1:5" ht="21" thickBot="1">
       <c r="A175" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="D175" s="5">
         <v>126.6502972</v>
@@ -5234,13 +5249,13 @@
     </row>
     <row r="176" spans="1:5" ht="21" thickBot="1">
       <c r="A176" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D176" s="5">
         <v>126.7219068</v>
@@ -5251,13 +5266,13 @@
     </row>
     <row r="177" spans="1:5" ht="18" thickBot="1">
       <c r="A177" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D177" s="5">
         <v>126.67596159999999</v>
@@ -5268,13 +5283,13 @@
     </row>
     <row r="178" spans="1:5" ht="21" thickBot="1">
       <c r="A178" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="D178" s="5">
         <v>126.67826580000001</v>
@@ -5285,13 +5300,13 @@
     </row>
     <row r="179" spans="1:5" ht="18" thickBot="1">
       <c r="A179" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D179" s="5">
         <v>126.62176169999999</v>
@@ -5302,13 +5317,13 @@
     </row>
     <row r="180" spans="1:5" ht="18" thickBot="1">
       <c r="A180" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="D180" s="5">
         <v>126.76919719999999</v>
@@ -5319,13 +5334,13 @@
     </row>
     <row r="181" spans="1:5" ht="18" thickBot="1">
       <c r="A181" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="D181" s="5">
         <v>126.7041083</v>
@@ -5336,13 +5351,13 @@
     </row>
     <row r="182" spans="1:5" ht="18" thickBot="1">
       <c r="A182" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="D182" s="5">
         <v>127.2870556</v>
@@ -5353,13 +5368,13 @@
     </row>
     <row r="183" spans="1:5" ht="18" thickBot="1">
       <c r="A183" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="D183" s="5">
         <v>127.2941083</v>
@@ -5370,13 +5385,13 @@
     </row>
     <row r="184" spans="1:5" ht="18" thickBot="1">
       <c r="A184" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="D184" s="5">
         <v>127.6981778</v>
@@ -5387,13 +5402,13 @@
     </row>
     <row r="185" spans="1:5" ht="18" thickBot="1">
       <c r="A185" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="D185" s="5">
         <v>127.4649333</v>
@@ -5404,13 +5419,13 @@
     </row>
     <row r="186" spans="1:5" ht="18" thickBot="1">
       <c r="A186" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D186" s="5">
         <v>126.7388444</v>
@@ -5421,13 +5436,13 @@
     </row>
     <row r="187" spans="1:5" ht="18" thickBot="1">
       <c r="A187" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="D187" s="5">
         <v>126.88275280000001</v>
@@ -5438,13 +5453,13 @@
     </row>
     <row r="188" spans="1:5" ht="18" thickBot="1">
       <c r="A188" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="D188" s="5">
         <v>126.71286670000001</v>
@@ -5455,13 +5470,13 @@
     </row>
     <row r="189" spans="1:5" ht="18" thickBot="1">
       <c r="A189" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="D189" s="5">
         <v>127.3925</v>
@@ -5472,13 +5487,13 @@
     </row>
     <row r="190" spans="1:5" ht="18" thickBot="1">
       <c r="A190" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="D190" s="5">
         <v>126.9901639</v>
@@ -5489,13 +5504,13 @@
     </row>
     <row r="191" spans="1:5" ht="18" thickBot="1">
       <c r="A191" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D191" s="5">
         <v>126.3944194</v>
@@ -5506,13 +5521,13 @@
     </row>
     <row r="192" spans="1:5" ht="18" thickBot="1">
       <c r="A192" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="D192" s="5">
         <v>126.4837</v>
@@ -5523,13 +5538,13 @@
     </row>
     <row r="193" spans="1:5" ht="18" thickBot="1">
       <c r="A193" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="D193" s="5">
         <v>127.6628667</v>
@@ -5540,13 +5555,13 @@
     </row>
     <row r="194" spans="1:5" ht="18" thickBot="1">
       <c r="A194" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="D194" s="5">
         <v>127.0820889</v>
@@ -5557,13 +5572,13 @@
     </row>
     <row r="195" spans="1:5" ht="18" thickBot="1">
       <c r="A195" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="D195" s="5">
         <v>126.7356778</v>
@@ -5574,13 +5589,13 @@
     </row>
     <row r="196" spans="1:5" ht="18" thickBot="1">
       <c r="A196" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="D196" s="5">
         <v>127.1396306</v>
@@ -5591,13 +5606,13 @@
     </row>
     <row r="197" spans="1:5" ht="18" thickBot="1">
       <c r="A197" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="D197" s="5">
         <v>127.4893306</v>
@@ -5608,13 +5623,13 @@
     </row>
     <row r="198" spans="1:5" ht="18" thickBot="1">
       <c r="A198" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="D198" s="5">
         <v>126.3817306</v>
@@ -5625,13 +5640,13 @@
     </row>
     <row r="199" spans="1:5" ht="18" thickBot="1">
       <c r="A199" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="D199" s="5">
         <v>127.6643861</v>
@@ -5642,13 +5657,13 @@
     </row>
     <row r="200" spans="1:5" ht="18" thickBot="1">
       <c r="A200" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="D200" s="5">
         <v>126.5140861</v>
@@ -5659,13 +5674,13 @@
     </row>
     <row r="201" spans="1:5" ht="18" thickBot="1">
       <c r="A201" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="D201" s="5">
         <v>126.6986194</v>
@@ -5676,13 +5691,13 @@
     </row>
     <row r="202" spans="1:5" ht="18" thickBot="1">
       <c r="A202" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="D202" s="5">
         <v>126.7570972</v>
@@ -5693,13 +5708,13 @@
     </row>
     <row r="203" spans="1:5" ht="18" thickBot="1">
       <c r="A203" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="D203" s="5">
         <v>127.1495972</v>
@@ -5710,13 +5725,13 @@
     </row>
     <row r="204" spans="1:5" ht="18" thickBot="1">
       <c r="A204" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="D204" s="5">
         <v>126.95985279999999</v>
@@ -5727,13 +5742,13 @@
     </row>
     <row r="205" spans="1:5" ht="18" thickBot="1">
       <c r="A205" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D205" s="5">
         <v>127.28475280000001</v>
@@ -5744,13 +5759,13 @@
     </row>
     <row r="206" spans="1:5" ht="18" thickBot="1">
       <c r="A206" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="D206" s="5">
         <v>126.786975</v>
@@ -5761,13 +5776,13 @@
     </row>
     <row r="207" spans="1:5" ht="18" thickBot="1">
       <c r="A207" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="D207" s="5">
         <v>127.52330000000001</v>
@@ -5778,13 +5793,13 @@
     </row>
     <row r="208" spans="1:5" ht="18" thickBot="1">
       <c r="A208" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="D208" s="5">
         <v>126.9091083</v>
@@ -5795,13 +5810,13 @@
     </row>
     <row r="209" spans="1:5" ht="18" thickBot="1">
       <c r="A209" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="D209" s="5">
         <v>127.1219194</v>
@@ -5812,13 +5827,13 @@
     </row>
     <row r="210" spans="1:5" ht="18" thickBot="1">
       <c r="A210" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D210" s="5">
         <v>126.8581111</v>
@@ -5829,13 +5844,13 @@
     </row>
     <row r="211" spans="1:5" ht="18" thickBot="1">
       <c r="A211" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="D211" s="5">
         <v>126.2655444</v>
@@ -5846,13 +5861,13 @@
     </row>
     <row r="212" spans="1:5" ht="18" thickBot="1">
       <c r="A212" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="D212" s="5">
         <v>127.42696669999999</v>
@@ -5863,13 +5878,13 @@
     </row>
     <row r="213" spans="1:5" ht="18" thickBot="1">
       <c r="A213" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>397</v>
       </c>
       <c r="D213" s="5">
         <v>126.51861940000001</v>
@@ -5880,13 +5895,13 @@
     </row>
     <row r="214" spans="1:5" ht="18" thickBot="1">
       <c r="A214" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="D214" s="5">
         <v>126.6012889</v>
@@ -5897,13 +5912,13 @@
     </row>
     <row r="215" spans="1:5" ht="18" thickBot="1">
       <c r="A215" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="D215" s="5">
         <v>126.98856670000001</v>
@@ -5914,13 +5929,13 @@
     </row>
     <row r="216" spans="1:5" ht="18" thickBot="1">
       <c r="A216" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D216" s="5">
         <v>127.2551569</v>
@@ -5931,13 +5946,13 @@
     </row>
     <row r="217" spans="1:5" ht="21" thickBot="1">
       <c r="A217" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="D217" s="5">
         <v>126.5125556</v>
@@ -5948,13 +5963,13 @@
     </row>
     <row r="218" spans="1:5" ht="18" thickBot="1">
       <c r="A218" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="D218" s="5">
         <v>126.5332083</v>
@@ -5963,15 +5978,15 @@
         <v>33.496311110000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="18" thickBot="1">
+    <row r="219" spans="1:5" ht="21" thickBot="1">
       <c r="A219" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="D219" s="5">
         <v>128.60355279999999</v>
@@ -5980,15 +5995,15 @@
         <v>35.868541669999999</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="18" thickBot="1">
+    <row r="220" spans="1:5" ht="21" thickBot="1">
       <c r="A220" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="D220" s="5">
         <v>127.2509306</v>
@@ -5997,15 +6012,15 @@
         <v>36.271836110000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="18" thickBot="1">
+    <row r="221" spans="1:5" ht="21" thickBot="1">
       <c r="A221" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="D221" s="5">
         <v>127.23611200000001</v>
@@ -6014,15 +6029,15 @@
         <v>36.519900999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="18" thickBot="1">
+    <row r="222" spans="1:5" ht="21" thickBot="1">
       <c r="A222" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="D222" s="5">
         <v>127.1211194</v>
@@ -6031,15 +6046,15 @@
         <v>36.443613890000002</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="18" thickBot="1">
+    <row r="223" spans="1:5" ht="21" thickBot="1">
       <c r="A223" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C223" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="D223" s="5">
         <v>127.7888306</v>
@@ -6050,13 +6065,13 @@
     </row>
     <row r="224" spans="1:5" ht="21" thickBot="1">
       <c r="A224" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="D224" s="5">
         <v>127.29562</v>
@@ -6065,15 +6080,15 @@
         <v>36.488993999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="18" thickBot="1">
+    <row r="225" spans="1:5" ht="21" thickBot="1">
       <c r="A225" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="D225" s="5">
         <v>127.28035</v>
@@ -6082,15 +6097,15 @@
         <v>36.463825999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="18" thickBot="1">
+    <row r="226" spans="1:5" ht="21" thickBot="1">
       <c r="A226" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="D226" s="5">
         <v>127.4903083</v>
@@ -6099,15 +6114,15 @@
         <v>36.105869439999999</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="18" thickBot="1">
+    <row r="227" spans="1:5" ht="21" thickBot="1">
       <c r="A227" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="D227" s="5">
         <v>126.613277</v>
@@ -6116,15 +6131,15 @@
         <v>36.891877999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="18" thickBot="1">
+    <row r="228" spans="1:5" ht="21" thickBot="1">
       <c r="A228" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="D228" s="5">
         <v>126.613277</v>
@@ -6135,13 +6150,13 @@
     </row>
     <row r="229" spans="1:5" ht="21" thickBot="1">
       <c r="A229" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="D229" s="5">
         <v>127.28944799999999</v>
@@ -6150,15 +6165,15 @@
         <v>36.479522000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="18" thickBot="1">
+    <row r="230" spans="1:5" ht="21" thickBot="1">
       <c r="A230" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="D230" s="5">
         <v>127.258565</v>
@@ -6167,15 +6182,15 @@
         <v>36.479439999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="18" thickBot="1">
+    <row r="231" spans="1:5" ht="21" thickBot="1">
       <c r="A231" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="D231" s="5">
         <v>127.1009111</v>
@@ -6184,15 +6199,15 @@
         <v>36.18420278</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="18" thickBot="1">
+    <row r="232" spans="1:5" ht="21" thickBot="1">
       <c r="A232" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="D232" s="5">
         <v>127.252375</v>
@@ -6201,15 +6216,15 @@
         <v>36.475096999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="18" thickBot="1">
+    <row r="233" spans="1:5" ht="21" thickBot="1">
       <c r="A233" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="D233" s="5">
         <v>127.254501</v>
@@ -6220,13 +6235,13 @@
     </row>
     <row r="234" spans="1:5" ht="21" thickBot="1">
       <c r="A234" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="D234" s="5">
         <v>127.241922</v>
@@ -6235,15 +6250,15 @@
         <v>36.493402000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="18" thickBot="1">
+    <row r="235" spans="1:5" ht="21" thickBot="1">
       <c r="A235" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="D235" s="5">
         <v>127.234917</v>
@@ -6254,13 +6269,13 @@
     </row>
     <row r="236" spans="1:5" ht="21" thickBot="1">
       <c r="A236" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="D236" s="5">
         <v>127.255849</v>
@@ -6271,13 +6286,13 @@
     </row>
     <row r="237" spans="1:5" ht="21" thickBot="1">
       <c r="A237" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="D237" s="5">
         <v>127.246898</v>
@@ -6286,15 +6301,15 @@
         <v>36.496682</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="18" thickBot="1">
+    <row r="238" spans="1:5" ht="21" thickBot="1">
       <c r="A238" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="D238" s="5">
         <v>128.36784170000001</v>
@@ -6303,15 +6318,15 @@
         <v>36.981780559999997</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="18" thickBot="1">
+    <row r="239" spans="1:5" ht="21" thickBot="1">
       <c r="A239" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="D239" s="5">
         <v>127.24630000000001</v>
@@ -6320,15 +6335,15 @@
         <v>36.509374000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="18" thickBot="1">
+    <row r="240" spans="1:5" ht="21" thickBot="1">
       <c r="A240" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="D240" s="5">
         <v>127.25066</v>
@@ -6337,15 +6352,15 @@
         <v>36.508065000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="18" thickBot="1">
+    <row r="241" spans="1:5" ht="21" thickBot="1">
       <c r="A241" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D241" s="5">
         <v>127.684597</v>
@@ -6354,15 +6369,15 @@
         <v>36.881996999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="18" thickBot="1">
+    <row r="242" spans="1:5" ht="21" thickBot="1">
       <c r="A242" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D242" s="5">
         <v>126.63025279999999</v>
@@ -6371,15 +6386,15 @@
         <v>36.890749999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="18" thickBot="1">
+    <row r="243" spans="1:5" ht="21" thickBot="1">
       <c r="A243" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="D243" s="5">
         <v>127.28258099999999</v>
@@ -6388,15 +6403,15 @@
         <v>36.469406999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="18" thickBot="1">
+    <row r="244" spans="1:5" ht="21" thickBot="1">
       <c r="A244" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D244" s="5">
         <v>127.2623972</v>
@@ -6405,15 +6420,15 @@
         <v>36.517311110000001</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="18" thickBot="1">
+    <row r="245" spans="1:5" ht="21" thickBot="1">
       <c r="A245" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D245" s="5">
         <v>127.24761100000001</v>
@@ -6422,15 +6437,15 @@
         <v>36.502795999999996</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="18" thickBot="1">
+    <row r="246" spans="1:5" ht="21" thickBot="1">
       <c r="A246" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D246" s="5">
         <v>127.249982</v>
@@ -6439,15 +6454,15 @@
         <v>36.504688999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="18" thickBot="1">
+    <row r="247" spans="1:5" ht="21" thickBot="1">
       <c r="A247" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="D247" s="5">
         <v>127.23222199999999</v>
@@ -6458,13 +6473,13 @@
     </row>
     <row r="248" spans="1:5" ht="21" thickBot="1">
       <c r="A248" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="D248" s="5">
         <v>127.236121</v>
@@ -6475,13 +6490,13 @@
     </row>
     <row r="249" spans="1:5" ht="21" thickBot="1">
       <c r="A249" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="D249" s="5">
         <v>127.236121</v>
@@ -6490,15 +6505,15 @@
         <v>36.517356999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="18" thickBot="1">
+    <row r="250" spans="1:5" ht="21" thickBot="1">
       <c r="A250" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C250" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="D250" s="5">
         <v>127.160304</v>
@@ -6507,15 +6522,15 @@
         <v>36.822626</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="18" thickBot="1">
+    <row r="251" spans="1:5" ht="21" thickBot="1">
       <c r="A251" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>469</v>
       </c>
       <c r="D251" s="5">
         <v>127.265305</v>
@@ -6524,15 +6539,15 @@
         <v>36.512880000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="18" thickBot="1">
+    <row r="252" spans="1:5" ht="21" thickBot="1">
       <c r="A252" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="D252" s="5">
         <v>127.265305</v>
@@ -6541,15 +6556,15 @@
         <v>36.512880000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="18" thickBot="1">
+    <row r="253" spans="1:5" ht="21" thickBot="1">
       <c r="A253" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C253" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="D253" s="5">
         <v>127.265305</v>
@@ -6558,15 +6573,15 @@
         <v>36.512880000000003</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="18" thickBot="1">
+    <row r="254" spans="1:5" ht="21" thickBot="1">
       <c r="A254" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="D254" s="5">
         <v>127.28094</v>
@@ -6577,13 +6592,13 @@
     </row>
     <row r="255" spans="1:5" ht="21" thickBot="1">
       <c r="A255" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="D255" s="5">
         <v>127.28094</v>
@@ -6592,15 +6607,15 @@
         <v>36.478112000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="18" thickBot="1">
+    <row r="256" spans="1:5" ht="21" thickBot="1">
       <c r="A256" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="D256" s="5">
         <v>127.28094</v>
@@ -6609,15 +6624,15 @@
         <v>36.478112000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="18" thickBot="1">
+    <row r="257" spans="1:5" ht="21" thickBot="1">
       <c r="A257" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="D257" s="5">
         <v>126.61488610000001</v>
@@ -6626,15 +6641,15 @@
         <v>36.330575000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="18" thickBot="1">
+    <row r="258" spans="1:5" ht="21" thickBot="1">
       <c r="A258" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="D258" s="5">
         <v>127.7316083</v>
@@ -6643,15 +6658,15 @@
         <v>36.48653333</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="18" thickBot="1">
+    <row r="259" spans="1:5" ht="21" thickBot="1">
       <c r="A259" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C259" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="D259" s="5">
         <v>127.37037599999999</v>
@@ -6660,15 +6675,15 @@
         <v>36.527112000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="18" thickBot="1">
+    <row r="260" spans="1:5" ht="21" thickBot="1">
       <c r="A260" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="D260" s="5">
         <v>126.9118639</v>
@@ -6679,13 +6694,13 @@
     </row>
     <row r="261" spans="1:5" ht="21" thickBot="1">
       <c r="A261" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C261" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="D261" s="5">
         <v>127.254403</v>
@@ -6694,15 +6709,15 @@
         <v>36.479120999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="18" thickBot="1">
+    <row r="262" spans="1:5" ht="21" thickBot="1">
       <c r="A262" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C262" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="D262" s="5">
         <v>127.254403</v>
@@ -6713,13 +6728,13 @@
     </row>
     <row r="263" spans="1:5" ht="21" thickBot="1">
       <c r="A263" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="D263" s="5">
         <v>127.254403</v>
@@ -6730,13 +6745,13 @@
     </row>
     <row r="264" spans="1:5" ht="21" thickBot="1">
       <c r="A264" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C264" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="D264" s="5">
         <v>127.254403</v>
@@ -6745,15 +6760,15 @@
         <v>36.479120999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="18" thickBot="1">
+    <row r="265" spans="1:5" ht="21" thickBot="1">
       <c r="A265" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C265" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="D265" s="5">
         <v>126.4521639</v>
@@ -6762,15 +6777,15 @@
         <v>36.782097219999997</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="18" thickBot="1">
+    <row r="266" spans="1:5" ht="21" thickBot="1">
       <c r="A266" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>499</v>
       </c>
       <c r="D266" s="5">
         <v>126.6938889</v>
@@ -6779,15 +6794,15 @@
         <v>36.077405560000003</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="18" thickBot="1">
+    <row r="267" spans="1:5" ht="21" thickBot="1">
       <c r="A267" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="D267" s="5">
         <v>127.3000509</v>
@@ -6796,15 +6811,15 @@
         <v>36.488897000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="18" thickBot="1">
+    <row r="268" spans="1:5" ht="21" thickBot="1">
       <c r="A268" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="D268" s="5">
         <v>127.1582525</v>
@@ -6815,13 +6830,13 @@
     </row>
     <row r="269" spans="1:5" ht="21" thickBot="1">
       <c r="A269" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C269" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="D269" s="5">
         <v>127.29695599999999</v>
@@ -6830,15 +6845,15 @@
         <v>36.484202000000003</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="18" thickBot="1">
+    <row r="270" spans="1:5" ht="21" thickBot="1">
       <c r="A270" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C270" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="D270" s="5">
         <v>127.2482222</v>
@@ -6847,15 +6862,15 @@
         <v>36.512041670000002</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="18" thickBot="1">
+    <row r="271" spans="1:5" ht="21" thickBot="1">
       <c r="A271" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="D271" s="5">
         <v>127.00464169999999</v>
@@ -6864,15 +6879,15 @@
         <v>36.787105560000001</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="18" thickBot="1">
+    <row r="272" spans="1:5" ht="21" thickBot="1">
       <c r="A272" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="D272" s="5">
         <v>127.282781</v>
@@ -6881,15 +6896,15 @@
         <v>36.474615999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="18" thickBot="1">
+    <row r="273" spans="1:5" ht="21" thickBot="1">
       <c r="A273" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C273" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>513</v>
       </c>
       <c r="D273" s="5">
         <v>127.2737741</v>
@@ -6898,15 +6913,15 @@
         <v>36.541873699999996</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="18" thickBot="1">
+    <row r="274" spans="1:5" ht="21" thickBot="1">
       <c r="A274" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="D274" s="5">
         <v>127.32686579999999</v>
@@ -6915,15 +6930,15 @@
         <v>36.559088899999999</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="18" thickBot="1">
+    <row r="275" spans="1:5" ht="21" thickBot="1">
       <c r="A275" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="D275" s="5">
         <v>127.2716217</v>
@@ -6932,15 +6947,15 @@
         <v>36.592587000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="18" thickBot="1">
+    <row r="276" spans="1:5" ht="21" thickBot="1">
       <c r="A276" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="D276" s="5">
         <v>127.7856111</v>
@@ -6949,15 +6964,15 @@
         <v>36.172058329999999</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="18" thickBot="1">
+    <row r="277" spans="1:5" ht="21" thickBot="1">
       <c r="A277" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="D277" s="5">
         <v>126.850875</v>
@@ -6966,15 +6981,15 @@
         <v>36.679805559999998</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="18" thickBot="1">
+    <row r="278" spans="1:5" ht="21" thickBot="1">
       <c r="A278" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C278" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="D278" s="5">
         <v>127.5736333</v>
@@ -6983,15 +6998,15 @@
         <v>36.303550000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="18" thickBot="1">
+    <row r="279" spans="1:5" ht="21" thickBot="1">
       <c r="A279" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="D279" s="5">
         <v>127.6926222</v>
@@ -7000,15 +7015,15 @@
         <v>36.937405560000002</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="18" thickBot="1">
+    <row r="280" spans="1:5" ht="21" thickBot="1">
       <c r="A280" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="D280" s="5">
         <v>127.2056006</v>
@@ -7017,15 +7032,15 @@
         <v>36.496793400000001</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="18" thickBot="1">
+    <row r="281" spans="1:5" ht="21" thickBot="1">
       <c r="A281" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C281" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="D281" s="5">
         <v>127.19551250000001</v>
@@ -7034,15 +7049,15 @@
         <v>36.6812513</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="18" thickBot="1">
+    <row r="282" spans="1:5" ht="21" thickBot="1">
       <c r="A282" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C282" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="D282" s="5">
         <v>127.26250899999999</v>
@@ -7051,15 +7066,15 @@
         <v>36.508429999999997</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="18" thickBot="1">
+    <row r="283" spans="1:5" ht="21" thickBot="1">
       <c r="A283" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="D283" s="5">
         <v>128.19315280000001</v>
@@ -7070,13 +7085,13 @@
     </row>
     <row r="284" spans="1:5" ht="21" thickBot="1">
       <c r="A284" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C284" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="D284" s="5">
         <v>127.298399</v>
@@ -7085,15 +7100,15 @@
         <v>36.604528000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="18" thickBot="1">
+    <row r="285" spans="1:5" ht="21" thickBot="1">
       <c r="A285" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C285" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="D285" s="5">
         <v>127.247612</v>
@@ -7102,15 +7117,15 @@
         <v>36.511956900000001</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="18" thickBot="1">
+    <row r="286" spans="1:5" ht="21" thickBot="1">
       <c r="A286" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C286" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="D286" s="5">
         <v>127.5832889</v>
@@ -7119,15 +7134,15 @@
         <v>36.78218056</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="18" thickBot="1">
+    <row r="287" spans="1:5" ht="21" thickBot="1">
       <c r="A287" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C287" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="D287" s="5">
         <v>127.4376444</v>
@@ -7136,15 +7151,15 @@
         <v>36.852538889999998</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="18" thickBot="1">
+    <row r="288" spans="1:5" ht="21" thickBot="1">
       <c r="A288" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C288" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="D288" s="5">
         <v>127.15246670000001</v>
@@ -7153,15 +7168,15 @@
         <v>36.804124999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="18" thickBot="1">
+    <row r="289" spans="1:5" ht="21" thickBot="1">
       <c r="A289" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C289" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="D289" s="5">
         <v>126.8042556</v>
@@ -7170,15 +7185,15 @@
         <v>36.45626944</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="18" thickBot="1">
+    <row r="290" spans="1:5" ht="21" thickBot="1">
       <c r="A290" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="D290" s="5">
         <v>127.431119</v>
@@ -7187,15 +7202,15 @@
         <v>36.549748000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="18" thickBot="1">
+    <row r="291" spans="1:5" ht="21" thickBot="1">
       <c r="A291" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C291" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="D291" s="5">
         <v>127.51173060000001</v>
@@ -7204,15 +7219,15 @@
         <v>36.583997220000001</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="18" thickBot="1">
+    <row r="292" spans="1:5" ht="21" thickBot="1">
       <c r="A292" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C292" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="D292" s="5">
         <v>127.92814439999999</v>
@@ -7221,15 +7236,15 @@
         <v>36.988180560000004</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="18" thickBot="1">
+    <row r="293" spans="1:5" ht="21" thickBot="1">
       <c r="A293" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="D293" s="5">
         <v>126.299975</v>
@@ -7240,13 +7255,13 @@
     </row>
     <row r="294" spans="1:5" ht="21" thickBot="1">
       <c r="A294" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="D294" s="5">
         <v>127.28992599999999</v>
@@ -7255,15 +7270,15 @@
         <v>36.48545</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="18" thickBot="1">
+    <row r="295" spans="1:5" ht="21" thickBot="1">
       <c r="A295" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="D295" s="5">
         <v>126.6629083</v>
@@ -7272,15 +7287,15 @@
         <v>36.598361109999999</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="18" thickBot="1">
+    <row r="296" spans="1:5" ht="21" thickBot="1">
       <c r="A296" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D296" s="5">
         <v>127.38486159999999</v>
